--- a/Document/01_Portfolio/Portfolio_02/08_간트차트/5조 간트차트.xlsx
+++ b/Document/01_Portfolio/Portfolio_02/08_간트차트/5조 간트차트.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Canon\Documents\GitHub\petcommunity\Document\01_Portfolio\Portfolio_02\08_간트차트\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>W.Days</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,31 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스토어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박하얀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>동물병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>footer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스토어</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -173,19 +153,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자페이지 통계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박하얀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>워드 클라우드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>채팅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -209,10 +181,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인 통계 그래프 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서영철</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,10 +190,6 @@
   </si>
   <si>
     <t>박세영</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분실동물 게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -254,6 +218,94 @@
   </si>
   <si>
     <t>휴무일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실시간 쪽지 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자페이지 판매내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      박하얀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인,회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 반려동물,결제,회원수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지 넥사크로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 우측 배너</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 반려동물,결제,회원수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 데이터 크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐서플로우 이미지 학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬서버를 이용한 소켓통신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실동물 신고 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> nodejs 실시간 그룹채팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 프로젝트 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어, 상품 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어, 상품 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -620,13 +672,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -687,31 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -762,6 +817,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -774,11 +877,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
@@ -789,29 +889,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -819,6 +922,28 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill degree="90">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="0.5">
+            <color theme="1" tint="0.49803155613879818"/>
+          </stop>
+          <stop position="1">
+            <color theme="0"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1211,16 +1336,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ39"/>
+  <dimension ref="A1:EJ55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AV13" sqref="AV13"/>
+      <selection activeCell="AS23" sqref="AS23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="2" max="2" width="32.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
@@ -1231,37 +1356,37 @@
   <sheetData>
     <row r="1" spans="1:140" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="3" spans="1:140" ht="84" x14ac:dyDescent="0.3">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="58" t="s">
+      <c r="D3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="59" t="s">
-        <v>34</v>
+      <c r="F3" s="41" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="12">
         <v>44029</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="38">
         <f>G3+1</f>
         <v>44030</v>
       </c>
-      <c r="I3" s="50">
+      <c r="I3" s="38">
         <f t="shared" ref="I3:AI3" si="0">H3+1</f>
         <v>44031</v>
       </c>
@@ -1463,23 +1588,23 @@
       <c r="EJ3"/>
     </row>
     <row r="4" spans="1:140" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="22">
         <v>44029</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="23">
         <v>1</v>
       </c>
       <c r="F4" s="6">
-        <f>IF(E4&gt;0,WORKDAY(D4,E4,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D4)=0, WEEKDAY(D4,2)&lt;6),1,0),"")</f>
+        <f>IF(E4&gt;0,WORKDAY(D4,E4,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D4)=0, WEEKDAY(D4,2)&lt;6),1,0),"")</f>
         <v>44031</v>
       </c>
       <c r="G4" s="8"/>
@@ -1495,8 +1620,8 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="51" t="s">
-        <v>53</v>
+      <c r="T4" s="59" t="s">
+        <v>44</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -1512,8 +1637,8 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="51" t="s">
-        <v>54</v>
+      <c r="AI4" s="59" t="s">
+        <v>45</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
@@ -1609,19 +1734,19 @@
       <c r="EJ4"/>
     </row>
     <row r="5" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="31">
+      <c r="C5" s="58"/>
+      <c r="D5" s="24">
         <v>44032</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="25">
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <f>IF(E5&gt;0,WORKDAY(D5,E5,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D5)=0, WEEKDAY(D5,2)&lt;6),1,0),"")</f>
+        <f t="shared" ref="F5:F8" si="1">IF(E5&gt;0,WORKDAY(D5,E5,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D5)=0, WEEKDAY(D5,2)&lt;6),1,0),"")</f>
         <v>44032</v>
       </c>
       <c r="G5" s="16"/>
@@ -1637,7 +1762,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="52"/>
+      <c r="T5" s="60"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -1652,7 +1777,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="17"/>
       <c r="AH5" s="17"/>
-      <c r="AI5" s="52"/>
+      <c r="AI5" s="60"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
@@ -1747,52 +1872,50 @@
       <c r="EJ5"/>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="33">
-        <v>44029</v>
-      </c>
-      <c r="E6" s="34">
-        <v>2</v>
+      <c r="A6" s="55"/>
+      <c r="B6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="24">
+        <v>44033</v>
+      </c>
+      <c r="E6" s="25">
+        <v>5</v>
       </c>
       <c r="F6" s="6">
-        <f>IF(E6&gt;0,WORKDAY(D6,E6,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D6)=0, WEEKDAY(D6,2)&lt;6),1,0),"")</f>
-        <v>44032</v>
-      </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="52"/>
+        <f t="shared" si="1"/>
+        <v>44039</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="60"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
@@ -1887,50 +2010,50 @@
       <c r="EJ6"/>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="33">
-        <v>44033</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="A7" s="55"/>
+      <c r="B7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="24">
+        <v>44039</v>
+      </c>
+      <c r="E7" s="25">
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <f>IF(E7&gt;0,WORKDAY(D7,E7,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D7)=0, WEEKDAY(D7,2)&lt;6),1,0),"")</f>
-        <v>44033</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="52"/>
+        <f>IF(E7&gt;0,WORKDAY(D7,E7,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D7)=0, WEEKDAY(D7,2)&lt;6),1,0),"")</f>
+        <v>44039</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="60"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
@@ -2025,52 +2148,50 @@
       <c r="EJ7"/>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="33">
-        <v>44029</v>
-      </c>
-      <c r="E8" s="34">
-        <v>1</v>
+      <c r="A8" s="55"/>
+      <c r="B8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="24">
+        <v>44054</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2</v>
       </c>
       <c r="F8" s="6">
-        <f>IF(E8&gt;0,WORKDAY(D8,E8,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D8)=0, WEEKDAY(D8,2)&lt;6),1,0),"")</f>
-        <v>44031</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="52"/>
+        <f t="shared" si="1"/>
+        <v>44055</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="60"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
@@ -2165,22 +2286,22 @@
       <c r="EJ8"/>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="33">
+        <v>12</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="26">
         <v>44029</v>
       </c>
-      <c r="E9" s="34">
-        <v>2</v>
+      <c r="E9" s="27">
+        <v>4</v>
       </c>
       <c r="F9" s="6">
-        <f>IF(E9&gt;0,WORKDAY(D9,E9,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D9)=0, WEEKDAY(D9,2)&lt;6),1,0),"")</f>
-        <v>44032</v>
+        <f>IF(E9&gt;0,WORKDAY(D9,E9,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D9)=0, WEEKDAY(D9,2)&lt;6),1,0),"")</f>
+        <v>44034</v>
       </c>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
@@ -2195,7 +2316,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="52"/>
+      <c r="T9" s="60"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -2210,7 +2331,7 @@
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="52"/>
+      <c r="AI9" s="60"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
@@ -2305,22 +2426,20 @@
       <c r="EJ9"/>
     </row>
     <row r="10" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="33">
-        <v>44029</v>
-      </c>
-      <c r="E10" s="34">
+        <v>25</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="26">
+        <v>44035</v>
+      </c>
+      <c r="E10" s="27">
         <v>2</v>
       </c>
       <c r="F10" s="6">
-        <f>IF(E10&gt;0,WORKDAY(D10,E10,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D10)=0, WEEKDAY(D10,2)&lt;6),1,0),"")</f>
-        <v>44032</v>
+        <f>IF(E10&gt;0,WORKDAY(D10,E10,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D10)=0, WEEKDAY(D10,2)&lt;6),1,0),"")</f>
+        <v>44038</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="11"/>
@@ -2335,7 +2454,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="52"/>
+      <c r="T10" s="60"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
@@ -2350,7 +2469,7 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="52"/>
+      <c r="AI10" s="60"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
@@ -2445,22 +2564,20 @@
       <c r="EJ10"/>
     </row>
     <row r="11" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="33">
-        <v>44029</v>
-      </c>
-      <c r="E11" s="34">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="26">
+        <v>44039</v>
+      </c>
+      <c r="E11" s="27">
+        <v>1</v>
       </c>
       <c r="F11" s="6">
-        <f>IF(E11&gt;0,WORKDAY(D11,E11,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D11)=0, WEEKDAY(D11,2)&lt;6),1,0),"")</f>
-        <v>44032</v>
+        <f>IF(E11&gt;0,WORKDAY(D11,E11,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D11)=0, WEEKDAY(D11,2)&lt;6),1,0),"")</f>
+        <v>44039</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -2475,7 +2592,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="52"/>
+      <c r="T11" s="60"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -2490,7 +2607,7 @@
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
-      <c r="AI11" s="52"/>
+      <c r="AI11" s="60"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
@@ -2585,22 +2702,22 @@
       <c r="EJ11"/>
     </row>
     <row r="12" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="33">
-        <v>44049</v>
-      </c>
-      <c r="E12" s="34">
+        <v>67</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="26">
+        <v>44029</v>
+      </c>
+      <c r="E12" s="27">
         <v>2</v>
       </c>
       <c r="F12" s="6">
-        <f>IF(E12&gt;0,WORKDAY(D12,E12,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D12)=0, WEEKDAY(D12,2)&lt;6),1,0),"")</f>
-        <v>44052</v>
+        <f>IF(E12&gt;0,WORKDAY(D12,E12,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D12)=0, WEEKDAY(D12,2)&lt;6),1,0),"")</f>
+        <v>44032</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
@@ -2615,7 +2732,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="52"/>
+      <c r="T12" s="60"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -2630,7 +2747,7 @@
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="52"/>
+      <c r="AI12" s="60"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
@@ -2725,14 +2842,20 @@
       <c r="EJ12"/>
     </row>
     <row r="13" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="6" t="str">
-        <f>IF(E13&gt;0,WORKDAY(D13,E13,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D13)=0, WEEKDAY(D13,2)&lt;6),1,0),"")</f>
-        <v/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="26">
+        <v>44054</v>
+      </c>
+      <c r="E13" s="27">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <f>IF(E13&gt;0,WORKDAY(D13,E13,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D13)=0, WEEKDAY(D13,2)&lt;6),1,0),"")</f>
+        <v>44055</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
@@ -2747,7 +2870,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="52"/>
+      <c r="T13" s="60"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -2762,7 +2885,7 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="52"/>
+      <c r="AI13" s="60"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
@@ -2857,24 +2980,22 @@
       <c r="EJ13"/>
     </row>
     <row r="14" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="55"/>
       <c r="B14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="33">
-        <v>44033</v>
-      </c>
-      <c r="E14" s="34">
+        <v>15</v>
+      </c>
+      <c r="C14" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="26">
+        <v>44029</v>
+      </c>
+      <c r="E14" s="27">
         <v>2</v>
       </c>
       <c r="F14" s="6">
-        <f>IF(E14&gt;0,WORKDAY(D14,E14,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D14)=0, WEEKDAY(D14,2)&lt;6),1,0),"")</f>
-        <v>44034</v>
+        <f>IF(E14&gt;0,WORKDAY(D14,E14,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D14)=0, WEEKDAY(D14,2)&lt;6),1,0),"")</f>
+        <v>44032</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
@@ -2889,7 +3010,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="52"/>
+      <c r="T14" s="60"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
@@ -2904,7 +3025,7 @@
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="52"/>
+      <c r="AI14" s="60"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
@@ -2999,20 +3120,22 @@
       <c r="EJ14"/>
     </row>
     <row r="15" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="33">
-        <v>44035</v>
-      </c>
-      <c r="E15" s="34">
+        <v>22</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="26">
+        <v>44029</v>
+      </c>
+      <c r="E15" s="27">
         <v>2</v>
       </c>
       <c r="F15" s="6">
-        <f>IF(E15&gt;0,WORKDAY(D15,E15,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D15)=0, WEEKDAY(D15,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <f>IF(E15&gt;0,WORKDAY(D15,E15,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D15)=0, WEEKDAY(D15,2)&lt;6),1,0),"")</f>
+        <v>44032</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
@@ -3027,7 +3150,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="52"/>
+      <c r="T15" s="60"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -3042,7 +3165,7 @@
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
       <c r="AH15" s="11"/>
-      <c r="AI15" s="52"/>
+      <c r="AI15" s="60"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
@@ -3137,22 +3260,20 @@
       <c r="EJ15"/>
     </row>
     <row r="16" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="33">
-        <v>44034</v>
-      </c>
-      <c r="E16" s="34">
-        <v>5</v>
+        <v>57</v>
+      </c>
+      <c r="C16" s="49"/>
+      <c r="D16" s="24">
+        <v>44039</v>
+      </c>
+      <c r="E16" s="27">
+        <v>1</v>
       </c>
       <c r="F16" s="6">
-        <f>IF(E16&gt;0,WORKDAY(D16,E16,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D16)=0, WEEKDAY(D16,2)&lt;6),1,0),"")</f>
-        <v>44040</v>
+        <f>IF(E16&gt;0,WORKDAY(D16,E16,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D16)=0, WEEKDAY(D16,2)&lt;6),1,0),"")</f>
+        <v>44039</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
@@ -3167,7 +3288,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="52"/>
+      <c r="T16" s="60"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
@@ -3182,7 +3303,7 @@
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
-      <c r="AI16" s="52"/>
+      <c r="AI16" s="60"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
@@ -3277,22 +3398,22 @@
       <c r="EJ16"/>
     </row>
     <row r="17" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="33">
-        <v>44032</v>
-      </c>
-      <c r="E17" s="34">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="26">
+        <v>44030</v>
+      </c>
+      <c r="E17" s="27">
+        <v>2</v>
       </c>
       <c r="F17" s="6">
-        <f>IF(E17&gt;0,WORKDAY(D17,E17,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D17)=0, WEEKDAY(D17,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <f>IF(E17&gt;0,WORKDAY(D17,E17,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D17)=0, WEEKDAY(D17,2)&lt;6),1,0),"")</f>
+        <v>44033</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
@@ -3307,7 +3428,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="52"/>
+      <c r="T17" s="60"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -3322,7 +3443,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="52"/>
+      <c r="AI17" s="60"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
@@ -3417,22 +3538,20 @@
       <c r="EJ17"/>
     </row>
     <row r="18" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="33">
-        <v>44033</v>
-      </c>
-      <c r="E18" s="34">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="26">
+        <v>44041</v>
+      </c>
+      <c r="E18" s="27">
+        <v>1</v>
       </c>
       <c r="F18" s="6">
-        <f>IF(E18&gt;0,WORKDAY(D18,E18,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D18)=0, WEEKDAY(D18,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <f>IF(E18&gt;0,WORKDAY(D18,E18,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D18)=0, WEEKDAY(D18,2)&lt;6),1,0),"")</f>
+        <v>44041</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
@@ -3447,7 +3566,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="52"/>
+      <c r="T18" s="60"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
@@ -3462,7 +3581,7 @@
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
-      <c r="AI18" s="52"/>
+      <c r="AI18" s="60"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
@@ -3557,22 +3676,20 @@
       <c r="EJ18"/>
     </row>
     <row r="19" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="33">
-        <v>44033</v>
-      </c>
-      <c r="E19" s="34">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="26">
+        <v>44043</v>
+      </c>
+      <c r="E19" s="27">
+        <v>2</v>
       </c>
       <c r="F19" s="6">
-        <f>IF(E19&gt;0,WORKDAY(D19,E19,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D19)=0, WEEKDAY(D19,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <f>IF(E19&gt;0,WORKDAY(D19,E19,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D19)=0, WEEKDAY(D19,2)&lt;6),1,0),"")</f>
+        <v>44047</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
@@ -3587,7 +3704,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="52"/>
+      <c r="T19" s="60"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
@@ -3602,7 +3719,7 @@
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
-      <c r="AI19" s="52"/>
+      <c r="AI19" s="60"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
@@ -3697,22 +3814,22 @@
       <c r="EJ19"/>
     </row>
     <row r="20" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="33">
-        <v>44033</v>
-      </c>
-      <c r="E20" s="34">
+        <v>40</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="26">
+        <v>44049</v>
+      </c>
+      <c r="E20" s="27">
         <v>2</v>
       </c>
       <c r="F20" s="6">
-        <f>IF(E20&gt;0,WORKDAY(D20,E20,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D20)=0, WEEKDAY(D20,2)&lt;6),1,0),"")</f>
-        <v>44034</v>
+        <f>IF(E20&gt;0,WORKDAY(D20,E20,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D20)=0, WEEKDAY(D20,2)&lt;6),1,0),"")</f>
+        <v>44052</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
@@ -3727,7 +3844,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="52"/>
+      <c r="T20" s="60"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
@@ -3742,7 +3859,7 @@
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
-      <c r="AI20" s="52"/>
+      <c r="AI20" s="60"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
@@ -3837,20 +3954,14 @@
       <c r="EJ20"/>
     </row>
     <row r="21" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="33">
-        <v>44035</v>
-      </c>
-      <c r="E21" s="34">
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
-        <f>IF(E21&gt;0,WORKDAY(D21,E21,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D21)=0, WEEKDAY(D21,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="6" t="str">
+        <f>IF(E21&gt;0,WORKDAY(D21,E21,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D21)=0, WEEKDAY(D21,2)&lt;6),1,0),"")</f>
+        <v/>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
@@ -3865,7 +3976,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="52"/>
+      <c r="T21" s="60"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
@@ -3880,7 +3991,7 @@
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
-      <c r="AI21" s="52"/>
+      <c r="AI21" s="60"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
@@ -3975,14 +4086,24 @@
       <c r="EJ21"/>
     </row>
     <row r="22" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="6" t="str">
-        <f>IF(E22&gt;0,WORKDAY(D22,E22,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D22)=0, WEEKDAY(D22,2)&lt;6),1,0),"")</f>
-        <v/>
+      <c r="A22" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="26">
+        <v>44029</v>
+      </c>
+      <c r="E22" s="27">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <f>IF(E22&gt;0,WORKDAY(D22,E22,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D22)=0, WEEKDAY(D22,2)&lt;6),1,0),"")</f>
+        <v>44031</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
@@ -3997,7 +4118,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="52"/>
+      <c r="T22" s="60"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
@@ -4012,7 +4133,7 @@
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
-      <c r="AI22" s="52"/>
+      <c r="AI22" s="60"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -4107,24 +4228,20 @@
       <c r="EJ22"/>
     </row>
     <row r="23" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="55"/>
       <c r="B23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="33">
-        <v>44039</v>
-      </c>
-      <c r="E23" s="34">
-        <v>7</v>
+        <v>51</v>
+      </c>
+      <c r="C23" s="58"/>
+      <c r="D23" s="26">
+        <v>44040</v>
+      </c>
+      <c r="E23" s="27">
+        <v>1</v>
       </c>
       <c r="F23" s="6">
-        <f>IF(E23&gt;0,WORKDAY(D23,E23,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D23)=0, WEEKDAY(D23,2)&lt;6),1,0),"")</f>
-        <v>44048</v>
+        <f>IF(E23&gt;0,WORKDAY(D23,E23,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D23)=0, WEEKDAY(D23,2)&lt;6),1,0),"")</f>
+        <v>44040</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
@@ -4139,7 +4256,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="52"/>
+      <c r="T23" s="60"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
@@ -4154,7 +4271,7 @@
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
-      <c r="AI23" s="52"/>
+      <c r="AI23" s="60"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
@@ -4249,22 +4366,20 @@
       <c r="EJ23"/>
     </row>
     <row r="24" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="33">
-        <v>44039</v>
-      </c>
-      <c r="E24" s="34">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="26">
+        <v>44041</v>
+      </c>
+      <c r="E24" s="27">
+        <v>2</v>
       </c>
       <c r="F24" s="6">
-        <f>IF(E24&gt;0,WORKDAY(D24,E24,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D24)=0, WEEKDAY(D24,2)&lt;6),1,0),"")</f>
-        <v>44039</v>
+        <f>IF(E24&gt;0,WORKDAY(D24,E24,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D24)=0, WEEKDAY(D24,2)&lt;6),1,0),"")</f>
+        <v>44045</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
@@ -4279,7 +4394,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="52"/>
+      <c r="T24" s="60"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
@@ -4294,7 +4409,7 @@
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
-      <c r="AI24" s="52"/>
+      <c r="AI24" s="60"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
@@ -4389,20 +4504,22 @@
       <c r="EJ24"/>
     </row>
     <row r="25" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="33">
+        <v>48</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="26">
         <v>44040</v>
       </c>
-      <c r="E25" s="34">
-        <v>2</v>
+      <c r="E25" s="27">
+        <v>3</v>
       </c>
       <c r="F25" s="6">
-        <f>IF(E25&gt;0,WORKDAY(D25,E25,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D25)=0, WEEKDAY(D25,2)&lt;6),1,0),"")</f>
-        <v>44041</v>
+        <f>IF(E25&gt;0,WORKDAY(D25,E25,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D25)=0, WEEKDAY(D25,2)&lt;6),1,0),"")</f>
+        <v>44045</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="11"/>
@@ -4417,7 +4534,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="52"/>
+      <c r="T25" s="60"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -4432,7 +4549,7 @@
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
-      <c r="AI25" s="52"/>
+      <c r="AI25" s="60"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
@@ -4527,22 +4644,20 @@
       <c r="EJ25"/>
     </row>
     <row r="26" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="33">
-        <v>44039</v>
-      </c>
-      <c r="E26" s="34">
+        <v>25</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="26">
+        <v>44047</v>
+      </c>
+      <c r="E26" s="27">
         <v>6</v>
       </c>
       <c r="F26" s="6">
-        <f>IF(E26&gt;0,WORKDAY(D26,E26,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D26)=0, WEEKDAY(D26,2)&lt;6),1,0),"")</f>
-        <v>44047</v>
+        <f>IF(E26&gt;0,WORKDAY(D26,E26,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D26)=0, WEEKDAY(D26,2)&lt;6),1,0),"")</f>
+        <v>44054</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
@@ -4557,7 +4672,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="52"/>
+      <c r="T26" s="60"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
@@ -4572,7 +4687,7 @@
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
-      <c r="AI26" s="52"/>
+      <c r="AI26" s="60"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
@@ -4667,22 +4782,22 @@
       <c r="EJ26"/>
     </row>
     <row r="27" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="33">
-        <v>44039</v>
-      </c>
-      <c r="E27" s="34">
+        <v>68</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="26">
+        <v>44033</v>
+      </c>
+      <c r="E27" s="27">
         <v>4</v>
       </c>
       <c r="F27" s="6">
-        <f>IF(E27&gt;0,WORKDAY(D27,E27,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D27)=0, WEEKDAY(D27,2)&lt;6),1,0),"")</f>
-        <v>44045</v>
+        <f>IF(E27&gt;0,WORKDAY(D27,E27,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D27)=0, WEEKDAY(D27,2)&lt;6),1,0),"")</f>
+        <v>44038</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
@@ -4697,7 +4812,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
-      <c r="T27" s="52"/>
+      <c r="T27" s="60"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -4712,7 +4827,7 @@
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
-      <c r="AI27" s="52"/>
+      <c r="AI27" s="60"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
@@ -4807,20 +4922,20 @@
       <c r="EJ27"/>
     </row>
     <row r="28" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="33">
-        <v>44046</v>
-      </c>
-      <c r="E28" s="34">
-        <v>4</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="49"/>
+      <c r="D28" s="26">
+        <v>44056</v>
+      </c>
+      <c r="E28" s="27">
+        <v>1</v>
       </c>
       <c r="F28" s="6">
-        <f>IF(E28&gt;0,WORKDAY(D28,E28,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D28)=0, WEEKDAY(D28,2)&lt;6),1,0),"")</f>
-        <v>44049</v>
+        <f>IF(E28&gt;0,WORKDAY(D28,E28,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D28)=0, WEEKDAY(D28,2)&lt;6),1,0),"")</f>
+        <v>44059</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
@@ -4835,7 +4950,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="52"/>
+      <c r="T28" s="60"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -4850,7 +4965,7 @@
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
-      <c r="AI28" s="52"/>
+      <c r="AI28" s="60"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
@@ -4945,20 +5060,22 @@
       <c r="EJ28"/>
     </row>
     <row r="29" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="33">
-        <v>44050</v>
-      </c>
-      <c r="E29" s="34">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="26">
+        <v>44033</v>
+      </c>
+      <c r="E29" s="27">
         <v>4</v>
       </c>
       <c r="F29" s="6">
-        <f>IF(E29&gt;0,WORKDAY(D29,E29,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D29)=0, WEEKDAY(D29,2)&lt;6),1,0),"")</f>
-        <v>44055</v>
+        <f>IF(E29&gt;0,WORKDAY(D29,E29,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D29)=0, WEEKDAY(D29,2)&lt;6),1,0),"")</f>
+        <v>44038</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
@@ -4973,7 +5090,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
-      <c r="T29" s="52"/>
+      <c r="T29" s="60"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -4988,7 +5105,7 @@
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
-      <c r="AI29" s="52"/>
+      <c r="AI29" s="60"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -5083,22 +5200,22 @@
       <c r="EJ29"/>
     </row>
     <row r="30" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="33">
-        <v>44039</v>
-      </c>
-      <c r="E30" s="34">
-        <v>5</v>
+        <v>23</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="26">
+        <v>44033</v>
+      </c>
+      <c r="E30" s="27">
+        <v>4</v>
       </c>
       <c r="F30" s="6">
-        <f>IF(E30&gt;0,WORKDAY(D30,E30,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D30)=0, WEEKDAY(D30,2)&lt;6),1,0),"")</f>
-        <v>44046</v>
+        <f>IF(E30&gt;0,WORKDAY(D30,E30,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D30)=0, WEEKDAY(D30,2)&lt;6),1,0),"")</f>
+        <v>44038</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
@@ -5113,7 +5230,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="52"/>
+      <c r="T30" s="60"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
@@ -5128,7 +5245,7 @@
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
-      <c r="AI30" s="52"/>
+      <c r="AI30" s="60"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -5223,52 +5340,49 @@
       <c r="EJ30"/>
     </row>
     <row r="31" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="40">
+      <c r="A31" s="55"/>
+      <c r="B31" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="26">
+        <v>44042</v>
+      </c>
+      <c r="E31" s="27">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
         <v>44041</v>
       </c>
-      <c r="E31" s="41">
-        <v>3</v>
-      </c>
-      <c r="F31" s="42">
-        <f>IF(E31&gt;0,WORKDAY(D31,E31,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D31)=0, WEEKDAY(D31,2)&lt;6),1,0),"")</f>
-        <v>44046</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="53"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="44"/>
-      <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
-      <c r="AH31" s="44"/>
-      <c r="AI31" s="53"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
+      <c r="AE31" s="11"/>
+      <c r="AF31" s="11"/>
+      <c r="AG31" s="11"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="60"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5363,44 +5477,51 @@
       <c r="EJ31"/>
     </row>
     <row r="32" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36" t="str">
-        <f>IF(E32&gt;0,WORKDAY(D32,E32,$A$35:$A$37)-IF(AND(COUNTIF($A$35:$A$37,D32)=0, WEEKDAY(D32,2)&lt;6),1,0),"")</f>
-        <v/>
-      </c>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="37"/>
-      <c r="Z32" s="37"/>
-      <c r="AA32" s="37"/>
-      <c r="AB32" s="37"/>
-      <c r="AC32" s="37"/>
-      <c r="AD32" s="37"/>
-      <c r="AE32" s="37"/>
-      <c r="AF32" s="37"/>
-      <c r="AG32" s="37"/>
-      <c r="AH32" s="37"/>
-      <c r="AI32" s="37"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="26">
+        <v>44029</v>
+      </c>
+      <c r="E32" s="27">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>44029</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="60"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="11"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="60"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5494,80 +5615,2297 @@
       <c r="EI32"/>
       <c r="EJ32"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="56"/>
+    <row r="33" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A33" s="55"/>
+      <c r="B33" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="26">
+        <v>44034</v>
+      </c>
+      <c r="E33" s="27">
+        <v>5</v>
+      </c>
+      <c r="F33" s="6">
+        <f>IF(E33&gt;0,WORKDAY(D33,E33,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D33)=0, WEEKDAY(D33,2)&lt;6),1,0),"")</f>
+        <v>44040</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+      <c r="AC33" s="11"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="11"/>
+      <c r="AH33" s="11"/>
+      <c r="AI33" s="60"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+      <c r="AS33" s="5"/>
+      <c r="AT33" s="5"/>
+      <c r="AU33" s="5"/>
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+      <c r="AX33" s="5"/>
+      <c r="AY33" s="5"/>
+      <c r="AZ33" s="5"/>
+      <c r="BA33" s="5"/>
+      <c r="BB33" s="5"/>
+      <c r="BC33" s="5"/>
+      <c r="BD33" s="5"/>
+      <c r="BE33" s="5"/>
+      <c r="BF33" s="5"/>
+      <c r="BG33" s="5"/>
+      <c r="BH33" s="5"/>
+      <c r="BI33" s="5"/>
+      <c r="BJ33" s="5"/>
+      <c r="BK33" s="5"/>
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+      <c r="BQ33" s="5"/>
+      <c r="BR33" s="5"/>
+      <c r="BS33" s="5"/>
+      <c r="BT33" s="5"/>
+      <c r="BU33" s="5"/>
+      <c r="BV33" s="5"/>
+      <c r="BW33" s="5"/>
+      <c r="BX33" s="5"/>
+      <c r="BY33" s="5"/>
+      <c r="BZ33" s="5"/>
+      <c r="CA33" s="5"/>
+      <c r="CB33" s="5"/>
+      <c r="CC33" s="5"/>
+      <c r="CQ33"/>
+      <c r="CR33"/>
+      <c r="CS33"/>
+      <c r="CT33"/>
+      <c r="CU33"/>
+      <c r="CV33"/>
+      <c r="CW33"/>
+      <c r="CX33"/>
+      <c r="CY33"/>
+      <c r="CZ33"/>
+      <c r="DA33"/>
+      <c r="DB33"/>
+      <c r="DC33"/>
+      <c r="DD33"/>
+      <c r="DE33"/>
+      <c r="DF33"/>
+      <c r="DG33"/>
+      <c r="DH33"/>
+      <c r="DI33"/>
+      <c r="DJ33"/>
+      <c r="DK33"/>
+      <c r="DL33"/>
+      <c r="DM33"/>
+      <c r="DN33"/>
+      <c r="DO33"/>
+      <c r="DP33"/>
+      <c r="DQ33"/>
+      <c r="DR33"/>
+      <c r="DS33"/>
+      <c r="DT33"/>
+      <c r="DU33"/>
+      <c r="DV33"/>
+      <c r="DW33"/>
+      <c r="DX33"/>
+      <c r="DY33"/>
+      <c r="DZ33"/>
+      <c r="EA33"/>
+      <c r="EB33"/>
+      <c r="EC33"/>
+      <c r="ED33"/>
+      <c r="EE33"/>
+      <c r="EF33"/>
+      <c r="EG33"/>
+      <c r="EH33"/>
+      <c r="EI33"/>
+      <c r="EJ33"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+    <row r="34" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A34" s="55"/>
+      <c r="B34" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="26">
+        <v>44042</v>
+      </c>
+      <c r="E34" s="27">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6">
+        <f>IF(E34&gt;0,WORKDAY(D34,E34,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D34)=0, WEEKDAY(D34,2)&lt;6),1,0),"")</f>
+        <v>44046</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+      <c r="AC34" s="11"/>
+      <c r="AD34" s="11"/>
+      <c r="AE34" s="11"/>
+      <c r="AF34" s="11"/>
+      <c r="AG34" s="11"/>
+      <c r="AH34" s="11"/>
+      <c r="AI34" s="60"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
+      <c r="BO34" s="5"/>
+      <c r="BP34" s="5"/>
+      <c r="BQ34" s="5"/>
+      <c r="BR34" s="5"/>
+      <c r="BS34" s="5"/>
+      <c r="BT34" s="5"/>
+      <c r="BU34" s="5"/>
+      <c r="BV34" s="5"/>
+      <c r="BW34" s="5"/>
+      <c r="BX34" s="5"/>
+      <c r="BY34" s="5"/>
+      <c r="BZ34" s="5"/>
+      <c r="CA34" s="5"/>
+      <c r="CB34" s="5"/>
+      <c r="CC34" s="5"/>
+      <c r="CQ34"/>
+      <c r="CR34"/>
+      <c r="CS34"/>
+      <c r="CT34"/>
+      <c r="CU34"/>
+      <c r="CV34"/>
+      <c r="CW34"/>
+      <c r="CX34"/>
+      <c r="CY34"/>
+      <c r="CZ34"/>
+      <c r="DA34"/>
+      <c r="DB34"/>
+      <c r="DC34"/>
+      <c r="DD34"/>
+      <c r="DE34"/>
+      <c r="DF34"/>
+      <c r="DG34"/>
+      <c r="DH34"/>
+      <c r="DI34"/>
+      <c r="DJ34"/>
+      <c r="DK34"/>
+      <c r="DL34"/>
+      <c r="DM34"/>
+      <c r="DN34"/>
+      <c r="DO34"/>
+      <c r="DP34"/>
+      <c r="DQ34"/>
+      <c r="DR34"/>
+      <c r="DS34"/>
+      <c r="DT34"/>
+      <c r="DU34"/>
+      <c r="DV34"/>
+      <c r="DW34"/>
+      <c r="DX34"/>
+      <c r="DY34"/>
+      <c r="DZ34"/>
+      <c r="EA34"/>
+      <c r="EB34"/>
+      <c r="EC34"/>
+      <c r="ED34"/>
+      <c r="EE34"/>
+      <c r="EF34"/>
+      <c r="EG34"/>
+      <c r="EH34"/>
+      <c r="EI34"/>
+      <c r="EJ34"/>
+    </row>
+    <row r="35" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A35" s="55"/>
+      <c r="B35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="26">
+        <v>44047</v>
+      </c>
+      <c r="E35" s="27">
+        <v>3</v>
+      </c>
+      <c r="F35" s="6">
+        <f>IF(E35&gt;0,WORKDAY(D35,E35,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D35)=0, WEEKDAY(D35,2)&lt;6),1,0),"")</f>
+        <v>44049</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="60"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+      <c r="AC35" s="11"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="11"/>
+      <c r="AI35" s="60"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="5"/>
+      <c r="BQ35" s="5"/>
+      <c r="BR35" s="5"/>
+      <c r="BS35" s="5"/>
+      <c r="BT35" s="5"/>
+      <c r="BU35" s="5"/>
+      <c r="BV35" s="5"/>
+      <c r="BW35" s="5"/>
+      <c r="BX35" s="5"/>
+      <c r="BY35" s="5"/>
+      <c r="BZ35" s="5"/>
+      <c r="CA35" s="5"/>
+      <c r="CB35" s="5"/>
+      <c r="CC35" s="5"/>
+      <c r="CQ35"/>
+      <c r="CR35"/>
+      <c r="CS35"/>
+      <c r="CT35"/>
+      <c r="CU35"/>
+      <c r="CV35"/>
+      <c r="CW35"/>
+      <c r="CX35"/>
+      <c r="CY35"/>
+      <c r="CZ35"/>
+      <c r="DA35"/>
+      <c r="DB35"/>
+      <c r="DC35"/>
+      <c r="DD35"/>
+      <c r="DE35"/>
+      <c r="DF35"/>
+      <c r="DG35"/>
+      <c r="DH35"/>
+      <c r="DI35"/>
+      <c r="DJ35"/>
+      <c r="DK35"/>
+      <c r="DL35"/>
+      <c r="DM35"/>
+      <c r="DN35"/>
+      <c r="DO35"/>
+      <c r="DP35"/>
+      <c r="DQ35"/>
+      <c r="DR35"/>
+      <c r="DS35"/>
+      <c r="DT35"/>
+      <c r="DU35"/>
+      <c r="DV35"/>
+      <c r="DW35"/>
+      <c r="DX35"/>
+      <c r="DY35"/>
+      <c r="DZ35"/>
+      <c r="EA35"/>
+      <c r="EB35"/>
+      <c r="EC35"/>
+      <c r="ED35"/>
+      <c r="EE35"/>
+      <c r="EF35"/>
+      <c r="EG35"/>
+      <c r="EH35"/>
+      <c r="EI35"/>
+      <c r="EJ35"/>
+    </row>
+    <row r="36" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="6" t="str">
+        <f>IF(E36&gt;0,WORKDAY(D36,E36,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D36)=0, WEEKDAY(D36,2)&lt;6),1,0),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+      <c r="AC36" s="11"/>
+      <c r="AD36" s="11"/>
+      <c r="AE36" s="11"/>
+      <c r="AF36" s="11"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="11"/>
+      <c r="AI36" s="60"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="5"/>
+      <c r="BQ36" s="5"/>
+      <c r="BR36" s="5"/>
+      <c r="BS36" s="5"/>
+      <c r="BT36" s="5"/>
+      <c r="BU36" s="5"/>
+      <c r="BV36" s="5"/>
+      <c r="BW36" s="5"/>
+      <c r="BX36" s="5"/>
+      <c r="BY36" s="5"/>
+      <c r="BZ36" s="5"/>
+      <c r="CA36" s="5"/>
+      <c r="CB36" s="5"/>
+      <c r="CC36" s="5"/>
+      <c r="CQ36"/>
+      <c r="CR36"/>
+      <c r="CS36"/>
+      <c r="CT36"/>
+      <c r="CU36"/>
+      <c r="CV36"/>
+      <c r="CW36"/>
+      <c r="CX36"/>
+      <c r="CY36"/>
+      <c r="CZ36"/>
+      <c r="DA36"/>
+      <c r="DB36"/>
+      <c r="DC36"/>
+      <c r="DD36"/>
+      <c r="DE36"/>
+      <c r="DF36"/>
+      <c r="DG36"/>
+      <c r="DH36"/>
+      <c r="DI36"/>
+      <c r="DJ36"/>
+      <c r="DK36"/>
+      <c r="DL36"/>
+      <c r="DM36"/>
+      <c r="DN36"/>
+      <c r="DO36"/>
+      <c r="DP36"/>
+      <c r="DQ36"/>
+      <c r="DR36"/>
+      <c r="DS36"/>
+      <c r="DT36"/>
+      <c r="DU36"/>
+      <c r="DV36"/>
+      <c r="DW36"/>
+      <c r="DX36"/>
+      <c r="DY36"/>
+      <c r="DZ36"/>
+      <c r="EA36"/>
+      <c r="EB36"/>
+      <c r="EC36"/>
+      <c r="ED36"/>
+      <c r="EE36"/>
+      <c r="EF36"/>
+      <c r="EG36"/>
+      <c r="EH36"/>
+      <c r="EI36"/>
+      <c r="EJ36"/>
+    </row>
+    <row r="37" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A37" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="26">
+        <v>44046</v>
+      </c>
+      <c r="E37" s="27">
+        <v>4</v>
+      </c>
+      <c r="F37" s="6">
+        <f>IF(E37&gt;0,WORKDAY(D37,E37,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D37)=0, WEEKDAY(D37,2)&lt;6),1,0),"")</f>
+        <v>44049</v>
+      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+      <c r="AC37" s="11"/>
+      <c r="AD37" s="11"/>
+      <c r="AE37" s="11"/>
+      <c r="AF37" s="11"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="11"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="5"/>
+      <c r="AK37" s="5"/>
+      <c r="AL37" s="5"/>
+      <c r="AM37" s="5"/>
+      <c r="AN37" s="5"/>
+      <c r="AO37" s="5"/>
+      <c r="AP37" s="5"/>
+      <c r="AQ37" s="5"/>
+      <c r="AR37" s="5"/>
+      <c r="AS37" s="5"/>
+      <c r="AT37" s="5"/>
+      <c r="AU37" s="5"/>
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+      <c r="AX37" s="5"/>
+      <c r="AY37" s="5"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
+      <c r="BO37" s="5"/>
+      <c r="BP37" s="5"/>
+      <c r="BQ37" s="5"/>
+      <c r="BR37" s="5"/>
+      <c r="BS37" s="5"/>
+      <c r="BT37" s="5"/>
+      <c r="BU37" s="5"/>
+      <c r="BV37" s="5"/>
+      <c r="BW37" s="5"/>
+      <c r="BX37" s="5"/>
+      <c r="BY37" s="5"/>
+      <c r="BZ37" s="5"/>
+      <c r="CA37" s="5"/>
+      <c r="CB37" s="5"/>
+      <c r="CC37" s="5"/>
+      <c r="CQ37"/>
+      <c r="CR37"/>
+      <c r="CS37"/>
+      <c r="CT37"/>
+      <c r="CU37"/>
+      <c r="CV37"/>
+      <c r="CW37"/>
+      <c r="CX37"/>
+      <c r="CY37"/>
+      <c r="CZ37"/>
+      <c r="DA37"/>
+      <c r="DB37"/>
+      <c r="DC37"/>
+      <c r="DD37"/>
+      <c r="DE37"/>
+      <c r="DF37"/>
+      <c r="DG37"/>
+      <c r="DH37"/>
+      <c r="DI37"/>
+      <c r="DJ37"/>
+      <c r="DK37"/>
+      <c r="DL37"/>
+      <c r="DM37"/>
+      <c r="DN37"/>
+      <c r="DO37"/>
+      <c r="DP37"/>
+      <c r="DQ37"/>
+      <c r="DR37"/>
+      <c r="DS37"/>
+      <c r="DT37"/>
+      <c r="DU37"/>
+      <c r="DV37"/>
+      <c r="DW37"/>
+      <c r="DX37"/>
+      <c r="DY37"/>
+      <c r="DZ37"/>
+      <c r="EA37"/>
+      <c r="EB37"/>
+      <c r="EC37"/>
+      <c r="ED37"/>
+      <c r="EE37"/>
+      <c r="EF37"/>
+      <c r="EG37"/>
+      <c r="EH37"/>
+      <c r="EI37"/>
+      <c r="EJ37"/>
+    </row>
+    <row r="38" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A38" s="55"/>
+      <c r="B38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="26">
+        <v>44050</v>
+      </c>
+      <c r="E38" s="27">
+        <v>2</v>
+      </c>
+      <c r="F38" s="6">
+        <f>IF(E38&gt;0,WORKDAY(D38,E38,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D38)=0, WEEKDAY(D38,2)&lt;6),1,0),"")</f>
+        <v>44053</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+      <c r="AC38" s="11"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="11"/>
+      <c r="AF38" s="11"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="11"/>
+      <c r="AI38" s="60"/>
+      <c r="AJ38" s="5"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="5"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="5"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="5"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="5"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="5"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="5"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
+      <c r="BN38" s="5"/>
+      <c r="BO38" s="5"/>
+      <c r="BP38" s="5"/>
+      <c r="BQ38" s="5"/>
+      <c r="BR38" s="5"/>
+      <c r="BS38" s="5"/>
+      <c r="BT38" s="5"/>
+      <c r="BU38" s="5"/>
+      <c r="BV38" s="5"/>
+      <c r="BW38" s="5"/>
+      <c r="BX38" s="5"/>
+      <c r="BY38" s="5"/>
+      <c r="BZ38" s="5"/>
+      <c r="CA38" s="5"/>
+      <c r="CB38" s="5"/>
+      <c r="CC38" s="5"/>
+      <c r="CQ38"/>
+      <c r="CR38"/>
+      <c r="CS38"/>
+      <c r="CT38"/>
+      <c r="CU38"/>
+      <c r="CV38"/>
+      <c r="CW38"/>
+      <c r="CX38"/>
+      <c r="CY38"/>
+      <c r="CZ38"/>
+      <c r="DA38"/>
+      <c r="DB38"/>
+      <c r="DC38"/>
+      <c r="DD38"/>
+      <c r="DE38"/>
+      <c r="DF38"/>
+      <c r="DG38"/>
+      <c r="DH38"/>
+      <c r="DI38"/>
+      <c r="DJ38"/>
+      <c r="DK38"/>
+      <c r="DL38"/>
+      <c r="DM38"/>
+      <c r="DN38"/>
+      <c r="DO38"/>
+      <c r="DP38"/>
+      <c r="DQ38"/>
+      <c r="DR38"/>
+      <c r="DS38"/>
+      <c r="DT38"/>
+      <c r="DU38"/>
+      <c r="DV38"/>
+      <c r="DW38"/>
+      <c r="DX38"/>
+      <c r="DY38"/>
+      <c r="DZ38"/>
+      <c r="EA38"/>
+      <c r="EB38"/>
+      <c r="EC38"/>
+      <c r="ED38"/>
+      <c r="EE38"/>
+      <c r="EF38"/>
+      <c r="EG38"/>
+      <c r="EH38"/>
+      <c r="EI38"/>
+      <c r="EJ38"/>
+    </row>
+    <row r="39" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A39" s="55"/>
+      <c r="B39" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="26">
+        <v>44039</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <f>IF(E39&gt;0,WORKDAY(D39,E39,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D39)=0, WEEKDAY(D39,2)&lt;6),1,0),"")</f>
+        <v>44039</v>
+      </c>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="60"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+      <c r="AC39" s="11"/>
+      <c r="AD39" s="11"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="60"/>
+      <c r="AJ39" s="5"/>
+      <c r="AK39" s="5"/>
+      <c r="AL39" s="5"/>
+      <c r="AM39" s="5"/>
+      <c r="AN39" s="5"/>
+      <c r="AO39" s="5"/>
+      <c r="AP39" s="5"/>
+      <c r="AQ39" s="5"/>
+      <c r="AR39" s="5"/>
+      <c r="AS39" s="5"/>
+      <c r="AT39" s="5"/>
+      <c r="AU39" s="5"/>
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+      <c r="AX39" s="5"/>
+      <c r="AY39" s="5"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+      <c r="BQ39" s="5"/>
+      <c r="BR39" s="5"/>
+      <c r="BS39" s="5"/>
+      <c r="BT39" s="5"/>
+      <c r="BU39" s="5"/>
+      <c r="BV39" s="5"/>
+      <c r="BW39" s="5"/>
+      <c r="BX39" s="5"/>
+      <c r="BY39" s="5"/>
+      <c r="BZ39" s="5"/>
+      <c r="CA39" s="5"/>
+      <c r="CB39" s="5"/>
+      <c r="CC39" s="5"/>
+      <c r="CQ39"/>
+      <c r="CR39"/>
+      <c r="CS39"/>
+      <c r="CT39"/>
+      <c r="CU39"/>
+      <c r="CV39"/>
+      <c r="CW39"/>
+      <c r="CX39"/>
+      <c r="CY39"/>
+      <c r="CZ39"/>
+      <c r="DA39"/>
+      <c r="DB39"/>
+      <c r="DC39"/>
+      <c r="DD39"/>
+      <c r="DE39"/>
+      <c r="DF39"/>
+      <c r="DG39"/>
+      <c r="DH39"/>
+      <c r="DI39"/>
+      <c r="DJ39"/>
+      <c r="DK39"/>
+      <c r="DL39"/>
+      <c r="DM39"/>
+      <c r="DN39"/>
+      <c r="DO39"/>
+      <c r="DP39"/>
+      <c r="DQ39"/>
+      <c r="DR39"/>
+      <c r="DS39"/>
+      <c r="DT39"/>
+      <c r="DU39"/>
+      <c r="DV39"/>
+      <c r="DW39"/>
+      <c r="DX39"/>
+      <c r="DY39"/>
+      <c r="DZ39"/>
+      <c r="EA39"/>
+      <c r="EB39"/>
+      <c r="EC39"/>
+      <c r="ED39"/>
+      <c r="EE39"/>
+      <c r="EF39"/>
+      <c r="EG39"/>
+      <c r="EH39"/>
+      <c r="EI39"/>
+      <c r="EJ39"/>
+    </row>
+    <row r="40" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A40" s="55"/>
+      <c r="B40" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="26">
+        <v>44050</v>
+      </c>
+      <c r="E40" s="27">
+        <v>4</v>
+      </c>
+      <c r="F40" s="6">
+        <f>IF(E40&gt;0,WORKDAY(D40,E40,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D40)=0, WEEKDAY(D40,2)&lt;6),1,0),"")</f>
+        <v>44055</v>
+      </c>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="60"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="11"/>
+      <c r="AF40" s="11"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="11"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="5"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="5"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="5"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="5"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="5"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="5"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="5"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
+      <c r="BO40" s="5"/>
+      <c r="BP40" s="5"/>
+      <c r="BQ40" s="5"/>
+      <c r="BR40" s="5"/>
+      <c r="BS40" s="5"/>
+      <c r="BT40" s="5"/>
+      <c r="BU40" s="5"/>
+      <c r="BV40" s="5"/>
+      <c r="BW40" s="5"/>
+      <c r="BX40" s="5"/>
+      <c r="BY40" s="5"/>
+      <c r="BZ40" s="5"/>
+      <c r="CA40" s="5"/>
+      <c r="CB40" s="5"/>
+      <c r="CC40" s="5"/>
+      <c r="CQ40"/>
+      <c r="CR40"/>
+      <c r="CS40"/>
+      <c r="CT40"/>
+      <c r="CU40"/>
+      <c r="CV40"/>
+      <c r="CW40"/>
+      <c r="CX40"/>
+      <c r="CY40"/>
+      <c r="CZ40"/>
+      <c r="DA40"/>
+      <c r="DB40"/>
+      <c r="DC40"/>
+      <c r="DD40"/>
+      <c r="DE40"/>
+      <c r="DF40"/>
+      <c r="DG40"/>
+      <c r="DH40"/>
+      <c r="DI40"/>
+      <c r="DJ40"/>
+      <c r="DK40"/>
+      <c r="DL40"/>
+      <c r="DM40"/>
+      <c r="DN40"/>
+      <c r="DO40"/>
+      <c r="DP40"/>
+      <c r="DQ40"/>
+      <c r="DR40"/>
+      <c r="DS40"/>
+      <c r="DT40"/>
+      <c r="DU40"/>
+      <c r="DV40"/>
+      <c r="DW40"/>
+      <c r="DX40"/>
+      <c r="DY40"/>
+      <c r="DZ40"/>
+      <c r="EA40"/>
+      <c r="EB40"/>
+      <c r="EC40"/>
+      <c r="ED40"/>
+      <c r="EE40"/>
+      <c r="EF40"/>
+      <c r="EG40"/>
+      <c r="EH40"/>
+      <c r="EI40"/>
+      <c r="EJ40"/>
+    </row>
+    <row r="41" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A41" s="55"/>
+      <c r="B41" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="26">
+        <v>44039</v>
+      </c>
+      <c r="E41" s="27">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
+        <f>IF(E41&gt;0,WORKDAY(D41,E41,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D41)=0, WEEKDAY(D41,2)&lt;6),1,0),"")</f>
+        <v>44040</v>
+      </c>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+      <c r="AC41" s="11"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="11"/>
+      <c r="AF41" s="11"/>
+      <c r="AG41" s="11"/>
+      <c r="AH41" s="11"/>
+      <c r="AI41" s="60"/>
+      <c r="AJ41" s="5"/>
+      <c r="AK41" s="5"/>
+      <c r="AL41" s="5"/>
+      <c r="AM41" s="5"/>
+      <c r="AN41" s="5"/>
+      <c r="AO41" s="5"/>
+      <c r="AP41" s="5"/>
+      <c r="AQ41" s="5"/>
+      <c r="AR41" s="5"/>
+      <c r="AS41" s="5"/>
+      <c r="AT41" s="5"/>
+      <c r="AU41" s="5"/>
+      <c r="AV41" s="5"/>
+      <c r="AW41" s="5"/>
+      <c r="AX41" s="5"/>
+      <c r="AY41" s="5"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
+      <c r="BQ41" s="5"/>
+      <c r="BR41" s="5"/>
+      <c r="BS41" s="5"/>
+      <c r="BT41" s="5"/>
+      <c r="BU41" s="5"/>
+      <c r="BV41" s="5"/>
+      <c r="BW41" s="5"/>
+      <c r="BX41" s="5"/>
+      <c r="BY41" s="5"/>
+      <c r="BZ41" s="5"/>
+      <c r="CA41" s="5"/>
+      <c r="CB41" s="5"/>
+      <c r="CC41" s="5"/>
+      <c r="CQ41"/>
+      <c r="CR41"/>
+      <c r="CS41"/>
+      <c r="CT41"/>
+      <c r="CU41"/>
+      <c r="CV41"/>
+      <c r="CW41"/>
+      <c r="CX41"/>
+      <c r="CY41"/>
+      <c r="CZ41"/>
+      <c r="DA41"/>
+      <c r="DB41"/>
+      <c r="DC41"/>
+      <c r="DD41"/>
+      <c r="DE41"/>
+      <c r="DF41"/>
+      <c r="DG41"/>
+      <c r="DH41"/>
+      <c r="DI41"/>
+      <c r="DJ41"/>
+      <c r="DK41"/>
+      <c r="DL41"/>
+      <c r="DM41"/>
+      <c r="DN41"/>
+      <c r="DO41"/>
+      <c r="DP41"/>
+      <c r="DQ41"/>
+      <c r="DR41"/>
+      <c r="DS41"/>
+      <c r="DT41"/>
+      <c r="DU41"/>
+      <c r="DV41"/>
+      <c r="DW41"/>
+      <c r="DX41"/>
+      <c r="DY41"/>
+      <c r="DZ41"/>
+      <c r="EA41"/>
+      <c r="EB41"/>
+      <c r="EC41"/>
+      <c r="ED41"/>
+      <c r="EE41"/>
+      <c r="EF41"/>
+      <c r="EG41"/>
+      <c r="EH41"/>
+      <c r="EI41"/>
+      <c r="EJ41"/>
+    </row>
+    <row r="42" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A42" s="55"/>
+      <c r="B42" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="58"/>
+      <c r="D42" s="26">
+        <v>44041</v>
+      </c>
+      <c r="E42" s="27">
+        <v>4</v>
+      </c>
+      <c r="F42" s="6">
+        <f>IF(E42&gt;0,WORKDAY(D42,E42,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D42)=0, WEEKDAY(D42,2)&lt;6),1,0),"")</f>
+        <v>44047</v>
+      </c>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="11"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="11"/>
+      <c r="AF42" s="11"/>
+      <c r="AG42" s="11"/>
+      <c r="AH42" s="11"/>
+      <c r="AI42" s="60"/>
+      <c r="AJ42" s="5"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="5"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="5"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="5"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="5"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="5"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="5"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+      <c r="BQ42" s="5"/>
+      <c r="BR42" s="5"/>
+      <c r="BS42" s="5"/>
+      <c r="BT42" s="5"/>
+      <c r="BU42" s="5"/>
+      <c r="BV42" s="5"/>
+      <c r="BW42" s="5"/>
+      <c r="BX42" s="5"/>
+      <c r="BY42" s="5"/>
+      <c r="BZ42" s="5"/>
+      <c r="CA42" s="5"/>
+      <c r="CB42" s="5"/>
+      <c r="CC42" s="5"/>
+      <c r="CQ42"/>
+      <c r="CR42"/>
+      <c r="CS42"/>
+      <c r="CT42"/>
+      <c r="CU42"/>
+      <c r="CV42"/>
+      <c r="CW42"/>
+      <c r="CX42"/>
+      <c r="CY42"/>
+      <c r="CZ42"/>
+      <c r="DA42"/>
+      <c r="DB42"/>
+      <c r="DC42"/>
+      <c r="DD42"/>
+      <c r="DE42"/>
+      <c r="DF42"/>
+      <c r="DG42"/>
+      <c r="DH42"/>
+      <c r="DI42"/>
+      <c r="DJ42"/>
+      <c r="DK42"/>
+      <c r="DL42"/>
+      <c r="DM42"/>
+      <c r="DN42"/>
+      <c r="DO42"/>
+      <c r="DP42"/>
+      <c r="DQ42"/>
+      <c r="DR42"/>
+      <c r="DS42"/>
+      <c r="DT42"/>
+      <c r="DU42"/>
+      <c r="DV42"/>
+      <c r="DW42"/>
+      <c r="DX42"/>
+      <c r="DY42"/>
+      <c r="DZ42"/>
+      <c r="EA42"/>
+      <c r="EB42"/>
+      <c r="EC42"/>
+      <c r="ED42"/>
+      <c r="EE42"/>
+      <c r="EF42"/>
+      <c r="EG42"/>
+      <c r="EH42"/>
+      <c r="EI42"/>
+      <c r="EJ42"/>
+    </row>
+    <row r="43" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A43" s="55"/>
+      <c r="B43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="26">
+        <v>44050</v>
+      </c>
+      <c r="E43" s="27">
+        <v>2</v>
+      </c>
+      <c r="F43" s="6">
+        <f>IF(E43&gt;0,WORKDAY(D43,E43,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D43)=0, WEEKDAY(D43,2)&lt;6),1,0),"")</f>
+        <v>44053</v>
+      </c>
+      <c r="G43" s="10"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="60"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="60"/>
+      <c r="AJ43" s="5"/>
+      <c r="AK43" s="5"/>
+      <c r="AL43" s="5"/>
+      <c r="AM43" s="5"/>
+      <c r="AN43" s="5"/>
+      <c r="AO43" s="5"/>
+      <c r="AP43" s="5"/>
+      <c r="AQ43" s="5"/>
+      <c r="AR43" s="5"/>
+      <c r="AS43" s="5"/>
+      <c r="AT43" s="5"/>
+      <c r="AU43" s="5"/>
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+      <c r="AX43" s="5"/>
+      <c r="AY43" s="5"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+      <c r="BQ43" s="5"/>
+      <c r="BR43" s="5"/>
+      <c r="BS43" s="5"/>
+      <c r="BT43" s="5"/>
+      <c r="BU43" s="5"/>
+      <c r="BV43" s="5"/>
+      <c r="BW43" s="5"/>
+      <c r="BX43" s="5"/>
+      <c r="BY43" s="5"/>
+      <c r="BZ43" s="5"/>
+      <c r="CA43" s="5"/>
+      <c r="CB43" s="5"/>
+      <c r="CC43" s="5"/>
+      <c r="CQ43"/>
+      <c r="CR43"/>
+      <c r="CS43"/>
+      <c r="CT43"/>
+      <c r="CU43"/>
+      <c r="CV43"/>
+      <c r="CW43"/>
+      <c r="CX43"/>
+      <c r="CY43"/>
+      <c r="CZ43"/>
+      <c r="DA43"/>
+      <c r="DB43"/>
+      <c r="DC43"/>
+      <c r="DD43"/>
+      <c r="DE43"/>
+      <c r="DF43"/>
+      <c r="DG43"/>
+      <c r="DH43"/>
+      <c r="DI43"/>
+      <c r="DJ43"/>
+      <c r="DK43"/>
+      <c r="DL43"/>
+      <c r="DM43"/>
+      <c r="DN43"/>
+      <c r="DO43"/>
+      <c r="DP43"/>
+      <c r="DQ43"/>
+      <c r="DR43"/>
+      <c r="DS43"/>
+      <c r="DT43"/>
+      <c r="DU43"/>
+      <c r="DV43"/>
+      <c r="DW43"/>
+      <c r="DX43"/>
+      <c r="DY43"/>
+      <c r="DZ43"/>
+      <c r="EA43"/>
+      <c r="EB43"/>
+      <c r="EC43"/>
+      <c r="ED43"/>
+      <c r="EE43"/>
+      <c r="EF43"/>
+      <c r="EG43"/>
+      <c r="EH43"/>
+      <c r="EI43"/>
+      <c r="EJ43"/>
+    </row>
+    <row r="44" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A44" s="55"/>
+      <c r="B44" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="26">
+        <v>44046</v>
+      </c>
+      <c r="E44" s="27">
+        <v>1</v>
+      </c>
+      <c r="F44" s="6">
+        <f>IF(E44&gt;0,WORKDAY(D44,E44,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D44)=0, WEEKDAY(D44,2)&lt;6),1,0),"")</f>
+        <v>44046</v>
+      </c>
+      <c r="G44" s="10"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="60"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
+      <c r="AA44" s="11"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="11"/>
+      <c r="AH44" s="11"/>
+      <c r="AI44" s="60"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+      <c r="BQ44" s="5"/>
+      <c r="BR44" s="5"/>
+      <c r="BS44" s="5"/>
+      <c r="BT44" s="5"/>
+      <c r="BU44" s="5"/>
+      <c r="BV44" s="5"/>
+      <c r="BW44" s="5"/>
+      <c r="BX44" s="5"/>
+      <c r="BY44" s="5"/>
+      <c r="BZ44" s="5"/>
+      <c r="CA44" s="5"/>
+      <c r="CB44" s="5"/>
+      <c r="CC44" s="5"/>
+      <c r="CQ44"/>
+      <c r="CR44"/>
+      <c r="CS44"/>
+      <c r="CT44"/>
+      <c r="CU44"/>
+      <c r="CV44"/>
+      <c r="CW44"/>
+      <c r="CX44"/>
+      <c r="CY44"/>
+      <c r="CZ44"/>
+      <c r="DA44"/>
+      <c r="DB44"/>
+      <c r="DC44"/>
+      <c r="DD44"/>
+      <c r="DE44"/>
+      <c r="DF44"/>
+      <c r="DG44"/>
+      <c r="DH44"/>
+      <c r="DI44"/>
+      <c r="DJ44"/>
+      <c r="DK44"/>
+      <c r="DL44"/>
+      <c r="DM44"/>
+      <c r="DN44"/>
+      <c r="DO44"/>
+      <c r="DP44"/>
+      <c r="DQ44"/>
+      <c r="DR44"/>
+      <c r="DS44"/>
+      <c r="DT44"/>
+      <c r="DU44"/>
+      <c r="DV44"/>
+      <c r="DW44"/>
+      <c r="DX44"/>
+      <c r="DY44"/>
+      <c r="DZ44"/>
+      <c r="EA44"/>
+      <c r="EB44"/>
+      <c r="EC44"/>
+      <c r="ED44"/>
+      <c r="EE44"/>
+      <c r="EF44"/>
+      <c r="EG44"/>
+      <c r="EH44"/>
+      <c r="EI44"/>
+      <c r="EJ44"/>
+    </row>
+    <row r="45" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A45" s="55"/>
+      <c r="B45" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="64">
+        <v>44047</v>
+      </c>
+      <c r="E45" s="65">
+        <v>3</v>
+      </c>
+      <c r="F45" s="66">
+        <f>IF(E45&gt;0,WORKDAY(D45,E45,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D45)=0, WEEKDAY(D45,2)&lt;6),1,0),"")</f>
+        <v>44049</v>
+      </c>
+      <c r="G45" s="67"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="68"/>
+      <c r="AC45" s="68"/>
+      <c r="AD45" s="68"/>
+      <c r="AE45" s="68"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="60"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+      <c r="BQ45" s="5"/>
+      <c r="BR45" s="5"/>
+      <c r="BS45" s="5"/>
+      <c r="BT45" s="5"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="5"/>
+      <c r="BW45" s="5"/>
+      <c r="BX45" s="5"/>
+      <c r="BY45" s="5"/>
+      <c r="BZ45" s="5"/>
+      <c r="CA45" s="5"/>
+      <c r="CB45" s="5"/>
+      <c r="CC45" s="5"/>
+      <c r="CQ45"/>
+      <c r="CR45"/>
+      <c r="CS45"/>
+      <c r="CT45"/>
+      <c r="CU45"/>
+      <c r="CV45"/>
+      <c r="CW45"/>
+      <c r="CX45"/>
+      <c r="CY45"/>
+      <c r="CZ45"/>
+      <c r="DA45"/>
+      <c r="DB45"/>
+      <c r="DC45"/>
+      <c r="DD45"/>
+      <c r="DE45"/>
+      <c r="DF45"/>
+      <c r="DG45"/>
+      <c r="DH45"/>
+      <c r="DI45"/>
+      <c r="DJ45"/>
+      <c r="DK45"/>
+      <c r="DL45"/>
+      <c r="DM45"/>
+      <c r="DN45"/>
+      <c r="DO45"/>
+      <c r="DP45"/>
+      <c r="DQ45"/>
+      <c r="DR45"/>
+      <c r="DS45"/>
+      <c r="DT45"/>
+      <c r="DU45"/>
+      <c r="DV45"/>
+      <c r="DW45"/>
+      <c r="DX45"/>
+      <c r="DY45"/>
+      <c r="DZ45"/>
+      <c r="EA45"/>
+      <c r="EB45"/>
+      <c r="EC45"/>
+      <c r="ED45"/>
+      <c r="EE45"/>
+      <c r="EF45"/>
+      <c r="EG45"/>
+      <c r="EH45"/>
+      <c r="EI45"/>
+      <c r="EJ45"/>
+    </row>
+    <row r="46" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A46" s="55"/>
+      <c r="B46" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="64">
+        <v>44050</v>
+      </c>
+      <c r="E46" s="65">
+        <v>2</v>
+      </c>
+      <c r="F46" s="66">
+        <f>IF(E46&gt;0,WORKDAY(D46,E46,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D46)=0, WEEKDAY(D46,2)&lt;6),1,0),"")</f>
+        <v>44053</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="68"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="60"/>
+      <c r="AJ46" s="5"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="5"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="5"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="5"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="5"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="5"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="5"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="5"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="5"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="5"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="5"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="5"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="5"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="5"/>
+      <c r="BM46" s="5"/>
+      <c r="BN46" s="5"/>
+      <c r="BO46" s="5"/>
+      <c r="BP46" s="5"/>
+      <c r="BQ46" s="5"/>
+      <c r="BR46" s="5"/>
+      <c r="BS46" s="5"/>
+      <c r="BT46" s="5"/>
+      <c r="BU46" s="5"/>
+      <c r="BV46" s="5"/>
+      <c r="BW46" s="5"/>
+      <c r="BX46" s="5"/>
+      <c r="BY46" s="5"/>
+      <c r="BZ46" s="5"/>
+      <c r="CA46" s="5"/>
+      <c r="CB46" s="5"/>
+      <c r="CC46" s="5"/>
+      <c r="CQ46"/>
+      <c r="CR46"/>
+      <c r="CS46"/>
+      <c r="CT46"/>
+      <c r="CU46"/>
+      <c r="CV46"/>
+      <c r="CW46"/>
+      <c r="CX46"/>
+      <c r="CY46"/>
+      <c r="CZ46"/>
+      <c r="DA46"/>
+      <c r="DB46"/>
+      <c r="DC46"/>
+      <c r="DD46"/>
+      <c r="DE46"/>
+      <c r="DF46"/>
+      <c r="DG46"/>
+      <c r="DH46"/>
+      <c r="DI46"/>
+      <c r="DJ46"/>
+      <c r="DK46"/>
+      <c r="DL46"/>
+      <c r="DM46"/>
+      <c r="DN46"/>
+      <c r="DO46"/>
+      <c r="DP46"/>
+      <c r="DQ46"/>
+      <c r="DR46"/>
+      <c r="DS46"/>
+      <c r="DT46"/>
+      <c r="DU46"/>
+      <c r="DV46"/>
+      <c r="DW46"/>
+      <c r="DX46"/>
+      <c r="DY46"/>
+      <c r="DZ46"/>
+      <c r="EA46"/>
+      <c r="EB46"/>
+      <c r="EC46"/>
+      <c r="ED46"/>
+      <c r="EE46"/>
+      <c r="EF46"/>
+      <c r="EG46"/>
+      <c r="EH46"/>
+      <c r="EI46"/>
+      <c r="EJ46"/>
+    </row>
+    <row r="47" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="33">
+        <v>44055</v>
+      </c>
+      <c r="E47" s="34">
+        <v>1</v>
+      </c>
+      <c r="F47" s="35">
+        <f>IF(E47&gt;0,WORKDAY(D47,E47,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D47)=0, WEEKDAY(D47,2)&lt;6),1,0),"")</f>
+        <v>44055</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="61"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37"/>
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37"/>
+      <c r="AI47" s="61"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+      <c r="BQ47" s="5"/>
+      <c r="BR47" s="5"/>
+      <c r="BS47" s="5"/>
+      <c r="BT47" s="5"/>
+      <c r="BU47" s="5"/>
+      <c r="BV47" s="5"/>
+      <c r="BW47" s="5"/>
+      <c r="BX47" s="5"/>
+      <c r="BY47" s="5"/>
+      <c r="BZ47" s="5"/>
+      <c r="CA47" s="5"/>
+      <c r="CB47" s="5"/>
+      <c r="CC47" s="5"/>
+      <c r="CQ47"/>
+      <c r="CR47"/>
+      <c r="CS47"/>
+      <c r="CT47"/>
+      <c r="CU47"/>
+      <c r="CV47"/>
+      <c r="CW47"/>
+      <c r="CX47"/>
+      <c r="CY47"/>
+      <c r="CZ47"/>
+      <c r="DA47"/>
+      <c r="DB47"/>
+      <c r="DC47"/>
+      <c r="DD47"/>
+      <c r="DE47"/>
+      <c r="DF47"/>
+      <c r="DG47"/>
+      <c r="DH47"/>
+      <c r="DI47"/>
+      <c r="DJ47"/>
+      <c r="DK47"/>
+      <c r="DL47"/>
+      <c r="DM47"/>
+      <c r="DN47"/>
+      <c r="DO47"/>
+      <c r="DP47"/>
+      <c r="DQ47"/>
+      <c r="DR47"/>
+      <c r="DS47"/>
+      <c r="DT47"/>
+      <c r="DU47"/>
+      <c r="DV47"/>
+      <c r="DW47"/>
+      <c r="DX47"/>
+      <c r="DY47"/>
+      <c r="DZ47"/>
+      <c r="EA47"/>
+      <c r="EB47"/>
+      <c r="EC47"/>
+      <c r="ED47"/>
+      <c r="EE47"/>
+      <c r="EF47"/>
+      <c r="EG47"/>
+      <c r="EH47"/>
+      <c r="EI47"/>
+      <c r="EJ47"/>
+    </row>
+    <row r="48" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29" t="str">
+        <f>IF(E48&gt;0,WORKDAY(D48,E48,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D48)=0, WEEKDAY(D48,2)&lt;6),1,0),"")</f>
+        <v/>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="30"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+      <c r="BQ48" s="5"/>
+      <c r="BR48" s="5"/>
+      <c r="BS48" s="5"/>
+      <c r="BT48" s="5"/>
+      <c r="BU48" s="5"/>
+      <c r="BV48" s="5"/>
+      <c r="BW48" s="5"/>
+      <c r="BX48" s="5"/>
+      <c r="BY48" s="5"/>
+      <c r="BZ48" s="5"/>
+      <c r="CA48" s="5"/>
+      <c r="CB48" s="5"/>
+      <c r="CC48" s="5"/>
+      <c r="CQ48"/>
+      <c r="CR48"/>
+      <c r="CS48"/>
+      <c r="CT48"/>
+      <c r="CU48"/>
+      <c r="CV48"/>
+      <c r="CW48"/>
+      <c r="CX48"/>
+      <c r="CY48"/>
+      <c r="CZ48"/>
+      <c r="DA48"/>
+      <c r="DB48"/>
+      <c r="DC48"/>
+      <c r="DD48"/>
+      <c r="DE48"/>
+      <c r="DF48"/>
+      <c r="DG48"/>
+      <c r="DH48"/>
+      <c r="DI48"/>
+      <c r="DJ48"/>
+      <c r="DK48"/>
+      <c r="DL48"/>
+      <c r="DM48"/>
+      <c r="DN48"/>
+      <c r="DO48"/>
+      <c r="DP48"/>
+      <c r="DQ48"/>
+      <c r="DR48"/>
+      <c r="DS48"/>
+      <c r="DT48"/>
+      <c r="DU48"/>
+      <c r="DV48"/>
+      <c r="DW48"/>
+      <c r="DX48"/>
+      <c r="DY48"/>
+      <c r="DZ48"/>
+      <c r="EA48"/>
+      <c r="EB48"/>
+      <c r="EC48"/>
+      <c r="ED48"/>
+      <c r="EE48"/>
+      <c r="EF48"/>
+      <c r="EG48"/>
+      <c r="EH48"/>
+      <c r="EI48"/>
+      <c r="EJ48"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="44"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <v>44043</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B51" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <v>44057</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B52" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="3"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A4:A12"/>
-    <mergeCell ref="A14:A21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="T4:T31"/>
-    <mergeCell ref="AI4:AI31"/>
-    <mergeCell ref="A23:A31"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
+  <mergeCells count="24">
+    <mergeCell ref="T4:T47"/>
+    <mergeCell ref="AI4:AI47"/>
+    <mergeCell ref="A37:A47"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A4:A20"/>
+    <mergeCell ref="A22:A35"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G4:T4 G32:T32 G5:S31 U4:AH32 AI4">
-    <cfRule type="expression" dxfId="2" priority="109">
-      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$35:$A$37,G$3)&gt;0)</formula>
+  <conditionalFormatting sqref="G4:T4 G48:T48 AI4 U4:AH48 G5:S47">
+    <cfRule type="expression" dxfId="2" priority="285">
+      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$51:$A$53,G$3)&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="110">
+    <cfRule type="expression" dxfId="1" priority="286">
       <formula>AND(G$3&gt;=$D4, G$3&lt;=$F4,LEN($F4)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:AI3">
-    <cfRule type="expression" dxfId="0" priority="119">
-      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$35:$A$37,G$3)&gt;0)</formula>
+    <cfRule type="expression" dxfId="0" priority="299">
+      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$51:$A$53,G$3)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/01_Portfolio/Portfolio_02/08_간트차트/5조 간트차트.xlsx
+++ b/Document/01_Portfolio/Portfolio_02/08_간트차트/5조 간트차트.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="70">
   <si>
     <t>W.Days</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,19 +93,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동물병원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>footer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>박하얀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동물병원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,10 +146,6 @@
   </si>
   <si>
     <t>박하얀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>워드 클라우드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -226,10 +214,6 @@
   </si>
   <si>
     <t>관리자페이지 판매내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      박하얀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -308,6 +292,26 @@
     <t>스토어, 상품 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>관리자 페이지 상품관리 CRUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동물 병원 찾기 게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 Morphological Analysis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 Word Cloud</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이썬 웹, 지도 데이터 크롤링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +372,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +400,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,14 +839,29 @@
     <xf numFmtId="176" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -847,13 +872,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -877,7 +902,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -892,29 +920,23 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -922,72 +944,6 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="90">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="0.5">
-            <color theme="1" tint="0.49803155613879818"/>
-          </stop>
-          <stop position="1">
-            <color theme="0"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1336,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EJ55"/>
+  <dimension ref="A1:EJ59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS23" sqref="AS23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1356,7 +1312,7 @@
   <sheetData>
     <row r="1" spans="1:140" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -1377,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" s="12">
         <v>44029</v>
@@ -1588,13 +1544,13 @@
       <c r="EJ3"/>
     </row>
     <row r="4" spans="1:140" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="59" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="22">
@@ -1604,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6">
-        <f>IF(E4&gt;0,WORKDAY(D4,E4,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D4)=0, WEEKDAY(D4,2)&lt;6),1,0),"")</f>
+        <f t="shared" ref="F4:F14" si="1">IF(E4&gt;0,WORKDAY(D4,E4,$A$55:$A$57)-IF(AND(COUNTIF($A$55:$A$57,D4)=0, WEEKDAY(D4,2)&lt;6),1,0),"")</f>
         <v>44031</v>
       </c>
       <c r="G4" s="8"/>
@@ -1620,8 +1576,8 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="59" t="s">
-        <v>44</v>
+      <c r="T4" s="65" t="s">
+        <v>41</v>
       </c>
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
@@ -1637,8 +1593,8 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="9"/>
-      <c r="AI4" s="59" t="s">
-        <v>45</v>
+      <c r="AI4" s="65" t="s">
+        <v>42</v>
       </c>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
@@ -1734,11 +1690,11 @@
       <c r="EJ4"/>
     </row>
     <row r="5" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="24">
         <v>44032</v>
       </c>
@@ -1746,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" ref="F5:F8" si="1">IF(E5&gt;0,WORKDAY(D5,E5,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D5)=0, WEEKDAY(D5,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44032</v>
       </c>
       <c r="G5" s="16"/>
@@ -1762,7 +1718,7 @@
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="60"/>
+      <c r="T5" s="66"/>
       <c r="U5" s="17"/>
       <c r="V5" s="17"/>
       <c r="W5" s="17"/>
@@ -1777,7 +1733,7 @@
       <c r="AF5" s="17"/>
       <c r="AG5" s="17"/>
       <c r="AH5" s="17"/>
-      <c r="AI5" s="60"/>
+      <c r="AI5" s="66"/>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
@@ -1872,11 +1828,11 @@
       <c r="EJ5"/>
     </row>
     <row r="6" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="58"/>
+        <v>48</v>
+      </c>
+      <c r="C6" s="54"/>
       <c r="D6" s="24">
         <v>44033</v>
       </c>
@@ -1900,7 +1856,7 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="60"/>
+      <c r="T6" s="66"/>
       <c r="U6" s="17"/>
       <c r="V6" s="17"/>
       <c r="W6" s="17"/>
@@ -1915,7 +1871,7 @@
       <c r="AF6" s="17"/>
       <c r="AG6" s="17"/>
       <c r="AH6" s="17"/>
-      <c r="AI6" s="60"/>
+      <c r="AI6" s="66"/>
       <c r="AJ6" s="5"/>
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
@@ -2010,11 +1966,11 @@
       <c r="EJ6"/>
     </row>
     <row r="7" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="58"/>
+        <v>51</v>
+      </c>
+      <c r="C7" s="54"/>
       <c r="D7" s="24">
         <v>44039</v>
       </c>
@@ -2022,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="6">
-        <f>IF(E7&gt;0,WORKDAY(D7,E7,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D7)=0, WEEKDAY(D7,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44039</v>
       </c>
       <c r="G7" s="16"/>
@@ -2038,7 +1994,7 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="60"/>
+      <c r="T7" s="66"/>
       <c r="U7" s="17"/>
       <c r="V7" s="17"/>
       <c r="W7" s="17"/>
@@ -2053,7 +2009,7 @@
       <c r="AF7" s="17"/>
       <c r="AG7" s="17"/>
       <c r="AH7" s="17"/>
-      <c r="AI7" s="60"/>
+      <c r="AI7" s="66"/>
       <c r="AJ7" s="5"/>
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
@@ -2148,11 +2104,11 @@
       <c r="EJ7"/>
     </row>
     <row r="8" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="49"/>
+        <v>50</v>
+      </c>
+      <c r="C8" s="55"/>
       <c r="D8" s="24">
         <v>44054</v>
       </c>
@@ -2176,7 +2132,7 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="60"/>
+      <c r="T8" s="66"/>
       <c r="U8" s="17"/>
       <c r="V8" s="17"/>
       <c r="W8" s="17"/>
@@ -2191,7 +2147,7 @@
       <c r="AF8" s="17"/>
       <c r="AG8" s="17"/>
       <c r="AH8" s="17"/>
-      <c r="AI8" s="60"/>
+      <c r="AI8" s="66"/>
       <c r="AJ8" s="5"/>
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
@@ -2286,11 +2242,11 @@
       <c r="EJ8"/>
     </row>
     <row r="9" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="53" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="26">
@@ -2300,7 +2256,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="6">
-        <f>IF(E9&gt;0,WORKDAY(D9,E9,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D9)=0, WEEKDAY(D9,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44034</v>
       </c>
       <c r="G9" s="10"/>
@@ -2316,7 +2272,7 @@
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
-      <c r="T9" s="60"/>
+      <c r="T9" s="66"/>
       <c r="U9" s="11"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
@@ -2331,7 +2287,7 @@
       <c r="AF9" s="11"/>
       <c r="AG9" s="11"/>
       <c r="AH9" s="11"/>
-      <c r="AI9" s="60"/>
+      <c r="AI9" s="66"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
       <c r="AL9" s="5"/>
@@ -2426,11 +2382,11 @@
       <c r="EJ9"/>
     </row>
     <row r="10" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="58"/>
+        <v>23</v>
+      </c>
+      <c r="C10" s="54"/>
       <c r="D10" s="26">
         <v>44035</v>
       </c>
@@ -2438,7 +2394,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="6">
-        <f>IF(E10&gt;0,WORKDAY(D10,E10,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D10)=0, WEEKDAY(D10,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44038</v>
       </c>
       <c r="G10" s="10"/>
@@ -2454,7 +2410,7 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
-      <c r="T10" s="60"/>
+      <c r="T10" s="66"/>
       <c r="U10" s="11"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
@@ -2469,7 +2425,7 @@
       <c r="AF10" s="11"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
-      <c r="AI10" s="60"/>
+      <c r="AI10" s="66"/>
       <c r="AJ10" s="5"/>
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
@@ -2564,11 +2520,11 @@
       <c r="EJ10"/>
     </row>
     <row r="11" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="49"/>
+        <v>15</v>
+      </c>
+      <c r="C11" s="55"/>
       <c r="D11" s="26">
         <v>44039</v>
       </c>
@@ -2576,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="6">
-        <f>IF(E11&gt;0,WORKDAY(D11,E11,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D11)=0, WEEKDAY(D11,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44039</v>
       </c>
       <c r="G11" s="10"/>
@@ -2592,7 +2548,7 @@
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
-      <c r="T11" s="60"/>
+      <c r="T11" s="66"/>
       <c r="U11" s="11"/>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
@@ -2607,7 +2563,7 @@
       <c r="AF11" s="11"/>
       <c r="AG11" s="11"/>
       <c r="AH11" s="11"/>
-      <c r="AI11" s="60"/>
+      <c r="AI11" s="66"/>
       <c r="AJ11" s="5"/>
       <c r="AK11" s="5"/>
       <c r="AL11" s="5"/>
@@ -2702,11 +2658,11 @@
       <c r="EJ11"/>
     </row>
     <row r="12" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="53" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="26">
@@ -2716,7 +2672,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="6">
-        <f>IF(E12&gt;0,WORKDAY(D12,E12,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D12)=0, WEEKDAY(D12,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44032</v>
       </c>
       <c r="G12" s="10"/>
@@ -2732,7 +2688,7 @@
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
-      <c r="T12" s="60"/>
+      <c r="T12" s="66"/>
       <c r="U12" s="11"/>
       <c r="V12" s="11"/>
       <c r="W12" s="11"/>
@@ -2747,7 +2703,7 @@
       <c r="AF12" s="11"/>
       <c r="AG12" s="11"/>
       <c r="AH12" s="11"/>
-      <c r="AI12" s="60"/>
+      <c r="AI12" s="66"/>
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
@@ -2842,11 +2798,11 @@
       <c r="EJ12"/>
     </row>
     <row r="13" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="49"/>
+        <v>44</v>
+      </c>
+      <c r="C13" s="55"/>
       <c r="D13" s="26">
         <v>44054</v>
       </c>
@@ -2854,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="6">
-        <f>IF(E13&gt;0,WORKDAY(D13,E13,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D13)=0, WEEKDAY(D13,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44055</v>
       </c>
       <c r="G13" s="10"/>
@@ -2870,7 +2826,7 @@
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
-      <c r="T13" s="60"/>
+      <c r="T13" s="66"/>
       <c r="U13" s="11"/>
       <c r="V13" s="11"/>
       <c r="W13" s="11"/>
@@ -2885,7 +2841,7 @@
       <c r="AF13" s="11"/>
       <c r="AG13" s="11"/>
       <c r="AH13" s="11"/>
-      <c r="AI13" s="60"/>
+      <c r="AI13" s="66"/>
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
       <c r="AL13" s="5"/>
@@ -2980,12 +2936,12 @@
       <c r="EJ13"/>
     </row>
     <row r="14" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="15" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D14" s="26">
         <v>44029</v>
@@ -2994,7 +2950,7 @@
         <v>2</v>
       </c>
       <c r="F14" s="6">
-        <f>IF(E14&gt;0,WORKDAY(D14,E14,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D14)=0, WEEKDAY(D14,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="1"/>
         <v>44032</v>
       </c>
       <c r="G14" s="10"/>
@@ -3010,7 +2966,7 @@
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
-      <c r="T14" s="60"/>
+      <c r="T14" s="66"/>
       <c r="U14" s="11"/>
       <c r="V14" s="11"/>
       <c r="W14" s="11"/>
@@ -3025,7 +2981,7 @@
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
       <c r="AH14" s="11"/>
-      <c r="AI14" s="60"/>
+      <c r="AI14" s="66"/>
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
@@ -3120,29 +3076,26 @@
       <c r="EJ14"/>
     </row>
     <row r="15" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>19</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C15" s="64"/>
       <c r="D15" s="26">
-        <v>44029</v>
+        <v>44046</v>
       </c>
       <c r="E15" s="27">
         <v>2</v>
       </c>
       <c r="F15" s="6">
-        <f>IF(E15&gt;0,WORKDAY(D15,E15,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D15)=0, WEEKDAY(D15,2)&lt;6),1,0),"")</f>
-        <v>44032</v>
+        <v>44047</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
@@ -3150,7 +3103,7 @@
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
-      <c r="T15" s="60"/>
+      <c r="T15" s="66"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
       <c r="W15" s="11"/>
@@ -3162,10 +3115,10 @@
       <c r="AC15" s="11"/>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
+      <c r="AF15" s="47"/>
+      <c r="AG15" s="49"/>
       <c r="AH15" s="11"/>
-      <c r="AI15" s="60"/>
+      <c r="AI15" s="66"/>
       <c r="AJ15" s="5"/>
       <c r="AK15" s="5"/>
       <c r="AL15" s="5"/>
@@ -3260,20 +3213,22 @@
       <c r="EJ15"/>
     </row>
     <row r="16" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="24">
-        <v>44039</v>
+        <v>20</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="26">
+        <v>44029</v>
       </c>
       <c r="E16" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" s="6">
-        <f>IF(E16&gt;0,WORKDAY(D16,E16,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D16)=0, WEEKDAY(D16,2)&lt;6),1,0),"")</f>
-        <v>44039</v>
+        <f t="shared" ref="F16:F29" si="2">IF(E16&gt;0,WORKDAY(D16,E16,$A$55:$A$57)-IF(AND(COUNTIF($A$55:$A$57,D16)=0, WEEKDAY(D16,2)&lt;6),1,0),"")</f>
+        <v>44032</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
@@ -3288,7 +3243,7 @@
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
-      <c r="T16" s="60"/>
+      <c r="T16" s="66"/>
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
@@ -3303,7 +3258,7 @@
       <c r="AF16" s="11"/>
       <c r="AG16" s="11"/>
       <c r="AH16" s="11"/>
-      <c r="AI16" s="60"/>
+      <c r="AI16" s="66"/>
       <c r="AJ16" s="5"/>
       <c r="AK16" s="5"/>
       <c r="AL16" s="5"/>
@@ -3398,22 +3353,20 @@
       <c r="EJ16"/>
     </row>
     <row r="17" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="26">
-        <v>44030</v>
+        <v>53</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="24">
+        <v>44039</v>
       </c>
       <c r="E17" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="6">
-        <f>IF(E17&gt;0,WORKDAY(D17,E17,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D17)=0, WEEKDAY(D17,2)&lt;6),1,0),"")</f>
-        <v>44033</v>
+        <f t="shared" si="2"/>
+        <v>44039</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
@@ -3428,7 +3381,7 @@
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
-      <c r="T17" s="60"/>
+      <c r="T17" s="66"/>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -3443,7 +3396,7 @@
       <c r="AF17" s="11"/>
       <c r="AG17" s="11"/>
       <c r="AH17" s="11"/>
-      <c r="AI17" s="60"/>
+      <c r="AI17" s="66"/>
       <c r="AJ17" s="5"/>
       <c r="AK17" s="5"/>
       <c r="AL17" s="5"/>
@@ -3538,20 +3491,22 @@
       <c r="EJ17"/>
     </row>
     <row r="18" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="58"/>
+        <v>39</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="D18" s="26">
-        <v>44041</v>
+        <v>44030</v>
       </c>
       <c r="E18" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="6">
-        <f>IF(E18&gt;0,WORKDAY(D18,E18,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D18)=0, WEEKDAY(D18,2)&lt;6),1,0),"")</f>
-        <v>44041</v>
+        <f t="shared" si="2"/>
+        <v>44033</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
@@ -3566,7 +3521,7 @@
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
-      <c r="T18" s="60"/>
+      <c r="T18" s="66"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
       <c r="W18" s="11"/>
@@ -3581,7 +3536,7 @@
       <c r="AF18" s="11"/>
       <c r="AG18" s="11"/>
       <c r="AH18" s="11"/>
-      <c r="AI18" s="60"/>
+      <c r="AI18" s="66"/>
       <c r="AJ18" s="5"/>
       <c r="AK18" s="5"/>
       <c r="AL18" s="5"/>
@@ -3676,20 +3631,20 @@
       <c r="EJ18"/>
     </row>
     <row r="19" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="49"/>
+        <v>59</v>
+      </c>
+      <c r="C19" s="54"/>
       <c r="D19" s="26">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="E19" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="6">
-        <f>IF(E19&gt;0,WORKDAY(D19,E19,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D19)=0, WEEKDAY(D19,2)&lt;6),1,0),"")</f>
-        <v>44047</v>
+        <f t="shared" si="2"/>
+        <v>44041</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
@@ -3704,7 +3659,7 @@
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
-      <c r="T19" s="60"/>
+      <c r="T19" s="66"/>
       <c r="U19" s="11"/>
       <c r="V19" s="11"/>
       <c r="W19" s="11"/>
@@ -3719,7 +3674,7 @@
       <c r="AF19" s="11"/>
       <c r="AG19" s="11"/>
       <c r="AH19" s="11"/>
-      <c r="AI19" s="60"/>
+      <c r="AI19" s="66"/>
       <c r="AJ19" s="5"/>
       <c r="AK19" s="5"/>
       <c r="AL19" s="5"/>
@@ -3814,22 +3769,20 @@
       <c r="EJ19"/>
     </row>
     <row r="20" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>41</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C20" s="55"/>
       <c r="D20" s="26">
-        <v>44049</v>
+        <v>44043</v>
       </c>
       <c r="E20" s="27">
         <v>2</v>
       </c>
       <c r="F20" s="6">
-        <f>IF(E20&gt;0,WORKDAY(D20,E20,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D20)=0, WEEKDAY(D20,2)&lt;6),1,0),"")</f>
-        <v>44052</v>
+        <f t="shared" si="2"/>
+        <v>44047</v>
       </c>
       <c r="G20" s="10"/>
       <c r="H20" s="11"/>
@@ -3844,7 +3797,7 @@
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
-      <c r="T20" s="60"/>
+      <c r="T20" s="66"/>
       <c r="U20" s="11"/>
       <c r="V20" s="11"/>
       <c r="W20" s="11"/>
@@ -3859,7 +3812,7 @@
       <c r="AF20" s="11"/>
       <c r="AG20" s="11"/>
       <c r="AH20" s="11"/>
-      <c r="AI20" s="60"/>
+      <c r="AI20" s="66"/>
       <c r="AJ20" s="5"/>
       <c r="AK20" s="5"/>
       <c r="AL20" s="5"/>
@@ -3954,14 +3907,22 @@
       <c r="EJ20"/>
     </row>
     <row r="21" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="6" t="str">
-        <f>IF(E21&gt;0,WORKDAY(D21,E21,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D21)=0, WEEKDAY(D21,2)&lt;6),1,0),"")</f>
-        <v/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="26">
+        <v>44049</v>
+      </c>
+      <c r="E21" s="27">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>44052</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
@@ -3976,7 +3937,7 @@
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
-      <c r="T21" s="60"/>
+      <c r="T21" s="66"/>
       <c r="U21" s="11"/>
       <c r="V21" s="11"/>
       <c r="W21" s="11"/>
@@ -3991,7 +3952,7 @@
       <c r="AF21" s="11"/>
       <c r="AG21" s="11"/>
       <c r="AH21" s="11"/>
-      <c r="AI21" s="60"/>
+      <c r="AI21" s="66"/>
       <c r="AJ21" s="5"/>
       <c r="AK21" s="5"/>
       <c r="AL21" s="5"/>
@@ -4086,24 +4047,14 @@
       <c r="EJ21"/>
     </row>
     <row r="22" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A22" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="26">
-        <v>44029</v>
-      </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <f>IF(E22&gt;0,WORKDAY(D22,E22,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D22)=0, WEEKDAY(D22,2)&lt;6),1,0),"")</f>
-        <v>44031</v>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
@@ -4118,7 +4069,7 @@
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
-      <c r="T22" s="60"/>
+      <c r="T22" s="66"/>
       <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
@@ -4133,7 +4084,7 @@
       <c r="AF22" s="11"/>
       <c r="AG22" s="11"/>
       <c r="AH22" s="11"/>
-      <c r="AI22" s="60"/>
+      <c r="AI22" s="66"/>
       <c r="AJ22" s="5"/>
       <c r="AK22" s="5"/>
       <c r="AL22" s="5"/>
@@ -4228,20 +4179,24 @@
       <c r="EJ22"/>
     </row>
     <row r="23" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="62" t="s">
+        <v>7</v>
+      </c>
       <c r="B23" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="58"/>
+        <v>46</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>6</v>
+      </c>
       <c r="D23" s="26">
-        <v>44040</v>
+        <v>44029</v>
       </c>
       <c r="E23" s="27">
         <v>1</v>
       </c>
       <c r="F23" s="6">
-        <f>IF(E23&gt;0,WORKDAY(D23,E23,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D23)=0, WEEKDAY(D23,2)&lt;6),1,0),"")</f>
-        <v>44040</v>
+        <f t="shared" si="2"/>
+        <v>44031</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
@@ -4256,7 +4211,7 @@
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
-      <c r="T23" s="60"/>
+      <c r="T23" s="66"/>
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
@@ -4271,7 +4226,7 @@
       <c r="AF23" s="11"/>
       <c r="AG23" s="11"/>
       <c r="AH23" s="11"/>
-      <c r="AI23" s="60"/>
+      <c r="AI23" s="66"/>
       <c r="AJ23" s="5"/>
       <c r="AK23" s="5"/>
       <c r="AL23" s="5"/>
@@ -4366,20 +4321,20 @@
       <c r="EJ23"/>
     </row>
     <row r="24" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="49"/>
+        <v>47</v>
+      </c>
+      <c r="C24" s="54"/>
       <c r="D24" s="26">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="E24" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" s="6">
-        <f>IF(E24&gt;0,WORKDAY(D24,E24,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D24)=0, WEEKDAY(D24,2)&lt;6),1,0),"")</f>
-        <v>44045</v>
+        <f t="shared" si="2"/>
+        <v>44040</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
@@ -4394,7 +4349,7 @@
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
-      <c r="T24" s="60"/>
+      <c r="T24" s="66"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
       <c r="W24" s="11"/>
@@ -4409,7 +4364,7 @@
       <c r="AF24" s="11"/>
       <c r="AG24" s="11"/>
       <c r="AH24" s="11"/>
-      <c r="AI24" s="60"/>
+      <c r="AI24" s="66"/>
       <c r="AJ24" s="5"/>
       <c r="AK24" s="5"/>
       <c r="AL24" s="5"/>
@@ -4504,21 +4459,19 @@
       <c r="EJ24"/>
     </row>
     <row r="25" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>11</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C25" s="55"/>
       <c r="D25" s="26">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="E25" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" s="6">
-        <f>IF(E25&gt;0,WORKDAY(D25,E25,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D25)=0, WEEKDAY(D25,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="2"/>
         <v>44045</v>
       </c>
       <c r="G25" s="10"/>
@@ -4534,7 +4487,7 @@
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
-      <c r="T25" s="60"/>
+      <c r="T25" s="66"/>
       <c r="U25" s="11"/>
       <c r="V25" s="11"/>
       <c r="W25" s="11"/>
@@ -4549,7 +4502,7 @@
       <c r="AF25" s="11"/>
       <c r="AG25" s="11"/>
       <c r="AH25" s="11"/>
-      <c r="AI25" s="60"/>
+      <c r="AI25" s="66"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5"/>
       <c r="AL25" s="5"/>
@@ -4644,20 +4597,22 @@
       <c r="EJ25"/>
     </row>
     <row r="26" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="49"/>
+        <v>45</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>11</v>
+      </c>
       <c r="D26" s="26">
-        <v>44047</v>
+        <v>44040</v>
       </c>
       <c r="E26" s="27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F26" s="6">
-        <f>IF(E26&gt;0,WORKDAY(D26,E26,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D26)=0, WEEKDAY(D26,2)&lt;6),1,0),"")</f>
-        <v>44054</v>
+        <f t="shared" si="2"/>
+        <v>44045</v>
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="11"/>
@@ -4672,7 +4627,7 @@
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
-      <c r="T26" s="60"/>
+      <c r="T26" s="66"/>
       <c r="U26" s="11"/>
       <c r="V26" s="11"/>
       <c r="W26" s="11"/>
@@ -4687,7 +4642,7 @@
       <c r="AF26" s="11"/>
       <c r="AG26" s="11"/>
       <c r="AH26" s="11"/>
-      <c r="AI26" s="60"/>
+      <c r="AI26" s="66"/>
       <c r="AJ26" s="5"/>
       <c r="AK26" s="5"/>
       <c r="AL26" s="5"/>
@@ -4782,22 +4737,20 @@
       <c r="EJ26"/>
     </row>
     <row r="27" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>14</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C27" s="55"/>
       <c r="D27" s="26">
-        <v>44033</v>
+        <v>44047</v>
       </c>
       <c r="E27" s="27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="6">
-        <f>IF(E27&gt;0,WORKDAY(D27,E27,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D27)=0, WEEKDAY(D27,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <f t="shared" si="2"/>
+        <v>44054</v>
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="11"/>
@@ -4812,7 +4765,7 @@
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
-      <c r="T27" s="60"/>
+      <c r="T27" s="66"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
@@ -4827,7 +4780,7 @@
       <c r="AF27" s="11"/>
       <c r="AG27" s="11"/>
       <c r="AH27" s="11"/>
-      <c r="AI27" s="60"/>
+      <c r="AI27" s="66"/>
       <c r="AJ27" s="5"/>
       <c r="AK27" s="5"/>
       <c r="AL27" s="5"/>
@@ -4922,20 +4875,22 @@
       <c r="EJ27"/>
     </row>
     <row r="28" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="49"/>
+        <v>64</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>14</v>
+      </c>
       <c r="D28" s="26">
-        <v>44056</v>
+        <v>44033</v>
       </c>
       <c r="E28" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="6">
-        <f>IF(E28&gt;0,WORKDAY(D28,E28,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D28)=0, WEEKDAY(D28,2)&lt;6),1,0),"")</f>
-        <v>44059</v>
+        <f t="shared" si="2"/>
+        <v>44038</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="11"/>
@@ -4950,7 +4905,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
-      <c r="T28" s="60"/>
+      <c r="T28" s="66"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
@@ -4965,7 +4920,7 @@
       <c r="AF28" s="11"/>
       <c r="AG28" s="11"/>
       <c r="AH28" s="11"/>
-      <c r="AI28" s="60"/>
+      <c r="AI28" s="66"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
@@ -5060,22 +5015,20 @@
       <c r="EJ28"/>
     </row>
     <row r="29" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>17</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C29" s="55"/>
       <c r="D29" s="26">
-        <v>44033</v>
+        <v>44056</v>
       </c>
       <c r="E29" s="27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" s="6">
-        <f>IF(E29&gt;0,WORKDAY(D29,E29,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D29)=0, WEEKDAY(D29,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <f t="shared" si="2"/>
+        <v>44059</v>
       </c>
       <c r="G29" s="10"/>
       <c r="H29" s="11"/>
@@ -5090,7 +5043,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
-      <c r="T29" s="60"/>
+      <c r="T29" s="66"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
       <c r="W29" s="11"/>
@@ -5105,7 +5058,7 @@
       <c r="AF29" s="11"/>
       <c r="AG29" s="11"/>
       <c r="AH29" s="11"/>
-      <c r="AI29" s="60"/>
+      <c r="AI29" s="66"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -5200,22 +5153,21 @@
       <c r="EJ29"/>
     </row>
     <row r="30" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
+      <c r="A30" s="60"/>
       <c r="B30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>19</v>
+        <v>66</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>16</v>
       </c>
       <c r="D30" s="26">
         <v>44033</v>
       </c>
       <c r="E30" s="27">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F30" s="6">
-        <f>IF(E30&gt;0,WORKDAY(D30,E30,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D30)=0, WEEKDAY(D30,2)&lt;6),1,0),"")</f>
-        <v>44038</v>
+        <v>44041</v>
       </c>
       <c r="G30" s="10"/>
       <c r="H30" s="11"/>
@@ -5225,12 +5177,12 @@
       <c r="L30" s="11"/>
       <c r="M30" s="11"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="O30" s="48"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
-      <c r="T30" s="60"/>
+      <c r="T30" s="66"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
@@ -5245,7 +5197,7 @@
       <c r="AF30" s="11"/>
       <c r="AG30" s="11"/>
       <c r="AH30" s="11"/>
-      <c r="AI30" s="60"/>
+      <c r="AI30" s="66"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -5340,19 +5292,19 @@
       <c r="EJ30"/>
     </row>
     <row r="31" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="C31" s="55"/>
       <c r="D31" s="26">
-        <v>44042</v>
+        <v>44048</v>
       </c>
       <c r="E31" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="6">
-        <v>44041</v>
+        <v>44050</v>
       </c>
       <c r="G31" s="10"/>
       <c r="H31" s="11"/>
@@ -5367,7 +5319,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
-      <c r="T31" s="60"/>
+      <c r="T31" s="66"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
       <c r="W31" s="11"/>
@@ -5382,7 +5334,7 @@
       <c r="AF31" s="11"/>
       <c r="AG31" s="11"/>
       <c r="AH31" s="11"/>
-      <c r="AI31" s="60"/>
+      <c r="AI31" s="66"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5477,21 +5429,22 @@
       <c r="EJ31"/>
     </row>
     <row r="32" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" s="50" t="s">
         <v>21</v>
       </c>
+      <c r="C32" s="53" t="s">
+        <v>17</v>
+      </c>
       <c r="D32" s="26">
-        <v>44029</v>
+        <v>44033</v>
       </c>
       <c r="E32" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F32" s="6">
-        <v>44029</v>
+        <f>IF(E32&gt;0,WORKDAY(D32,E32,$A$55:$A$57)-IF(AND(COUNTIF($A$55:$A$57,D32)=0, WEEKDAY(D32,2)&lt;6),1,0),"")</f>
+        <v>44038</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="11"/>
@@ -5506,7 +5459,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
-      <c r="T32" s="60"/>
+      <c r="T32" s="66"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
       <c r="W32" s="11"/>
@@ -5521,7 +5474,7 @@
       <c r="AF32" s="11"/>
       <c r="AG32" s="11"/>
       <c r="AH32" s="11"/>
-      <c r="AI32" s="60"/>
+      <c r="AI32" s="66"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5616,20 +5569,19 @@
       <c r="EJ32"/>
     </row>
     <row r="33" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="58"/>
+        <v>54</v>
+      </c>
+      <c r="C33" s="55"/>
       <c r="D33" s="26">
-        <v>44034</v>
+        <v>44042</v>
       </c>
       <c r="E33" s="27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="6">
-        <f>IF(E33&gt;0,WORKDAY(D33,E33,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D33)=0, WEEKDAY(D33,2)&lt;6),1,0),"")</f>
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="G33" s="10"/>
       <c r="H33" s="11"/>
@@ -5644,7 +5596,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
-      <c r="T33" s="60"/>
+      <c r="T33" s="66"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
@@ -5659,7 +5611,7 @@
       <c r="AF33" s="11"/>
       <c r="AG33" s="11"/>
       <c r="AH33" s="11"/>
-      <c r="AI33" s="60"/>
+      <c r="AI33" s="66"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -5754,20 +5706,21 @@
       <c r="EJ33"/>
     </row>
     <row r="34" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="58"/>
+        <v>62</v>
+      </c>
+      <c r="C34" s="53" t="s">
+        <v>19</v>
+      </c>
       <c r="D34" s="26">
-        <v>44042</v>
+        <v>44029</v>
       </c>
       <c r="E34" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" s="6">
-        <f>IF(E34&gt;0,WORKDAY(D34,E34,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D34)=0, WEEKDAY(D34,2)&lt;6),1,0),"")</f>
-        <v>44046</v>
+        <v>44029</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="11"/>
@@ -5782,7 +5735,7 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
-      <c r="T34" s="60"/>
+      <c r="T34" s="66"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
       <c r="W34" s="11"/>
@@ -5797,7 +5750,7 @@
       <c r="AF34" s="11"/>
       <c r="AG34" s="11"/>
       <c r="AH34" s="11"/>
-      <c r="AI34" s="60"/>
+      <c r="AI34" s="66"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
@@ -5892,20 +5845,20 @@
       <c r="EJ34"/>
     </row>
     <row r="35" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="49"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="54"/>
       <c r="D35" s="26">
-        <v>44047</v>
+        <v>44034</v>
       </c>
       <c r="E35" s="27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F35" s="6">
-        <f>IF(E35&gt;0,WORKDAY(D35,E35,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D35)=0, WEEKDAY(D35,2)&lt;6),1,0),"")</f>
-        <v>44049</v>
+        <f t="shared" ref="F35:F40" si="3">IF(E35&gt;0,WORKDAY(D35,E35,$A$55:$A$57)-IF(AND(COUNTIF($A$55:$A$57,D35)=0, WEEKDAY(D35,2)&lt;6),1,0),"")</f>
+        <v>44040</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="11"/>
@@ -5920,7 +5873,7 @@
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
-      <c r="T35" s="60"/>
+      <c r="T35" s="66"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
       <c r="W35" s="11"/>
@@ -5935,7 +5888,7 @@
       <c r="AF35" s="11"/>
       <c r="AG35" s="11"/>
       <c r="AH35" s="11"/>
-      <c r="AI35" s="60"/>
+      <c r="AI35" s="66"/>
       <c r="AJ35" s="5"/>
       <c r="AK35" s="5"/>
       <c r="AL35" s="5"/>
@@ -6030,14 +5983,20 @@
       <c r="EJ35"/>
     </row>
     <row r="36" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="6" t="str">
-        <f>IF(E36&gt;0,WORKDAY(D36,E36,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D36)=0, WEEKDAY(D36,2)&lt;6),1,0),"")</f>
-        <v/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="26">
+        <v>44042</v>
+      </c>
+      <c r="E36" s="27">
+        <v>2</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="3"/>
+        <v>44046</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="11"/>
@@ -6052,7 +6011,7 @@
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
-      <c r="T36" s="60"/>
+      <c r="T36" s="66"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
       <c r="W36" s="11"/>
@@ -6067,7 +6026,7 @@
       <c r="AF36" s="11"/>
       <c r="AG36" s="11"/>
       <c r="AH36" s="11"/>
-      <c r="AI36" s="60"/>
+      <c r="AI36" s="66"/>
       <c r="AJ36" s="5"/>
       <c r="AK36" s="5"/>
       <c r="AL36" s="5"/>
@@ -6162,23 +6121,19 @@
       <c r="EJ36"/>
     </row>
     <row r="37" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A37" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>28</v>
-      </c>
+      <c r="A37" s="60"/>
+      <c r="B37" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="55"/>
       <c r="D37" s="26">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="E37" s="27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="6">
-        <f>IF(E37&gt;0,WORKDAY(D37,E37,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D37)=0, WEEKDAY(D37,2)&lt;6),1,0),"")</f>
+        <f t="shared" si="3"/>
         <v>44049</v>
       </c>
       <c r="G37" s="10"/>
@@ -6194,7 +6149,7 @@
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
-      <c r="T37" s="60"/>
+      <c r="T37" s="66"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
       <c r="W37" s="11"/>
@@ -6209,7 +6164,7 @@
       <c r="AF37" s="11"/>
       <c r="AG37" s="11"/>
       <c r="AH37" s="11"/>
-      <c r="AI37" s="60"/>
+      <c r="AI37" s="66"/>
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="5"/>
@@ -6304,20 +6259,14 @@
       <c r="EJ37"/>
     </row>
     <row r="38" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="26">
-        <v>44050</v>
-      </c>
-      <c r="E38" s="27">
-        <v>2</v>
-      </c>
-      <c r="F38" s="6">
-        <f>IF(E38&gt;0,WORKDAY(D38,E38,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D38)=0, WEEKDAY(D38,2)&lt;6),1,0),"")</f>
-        <v>44053</v>
+      <c r="A38" s="56"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="G38" s="10"/>
       <c r="H38" s="11"/>
@@ -6332,7 +6281,7 @@
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
-      <c r="T38" s="60"/>
+      <c r="T38" s="66"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
       <c r="W38" s="11"/>
@@ -6347,7 +6296,7 @@
       <c r="AF38" s="11"/>
       <c r="AG38" s="11"/>
       <c r="AH38" s="11"/>
-      <c r="AI38" s="60"/>
+      <c r="AI38" s="66"/>
       <c r="AJ38" s="5"/>
       <c r="AK38" s="5"/>
       <c r="AL38" s="5"/>
@@ -6442,22 +6391,24 @@
       <c r="EJ38"/>
     </row>
     <row r="39" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
+      <c r="A39" s="62" t="s">
+        <v>24</v>
+      </c>
       <c r="B39" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>26</v>
       </c>
       <c r="D39" s="26">
-        <v>44039</v>
+        <v>44046</v>
       </c>
       <c r="E39" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F39" s="6">
-        <f>IF(E39&gt;0,WORKDAY(D39,E39,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D39)=0, WEEKDAY(D39,2)&lt;6),1,0),"")</f>
-        <v>44039</v>
+        <f t="shared" si="3"/>
+        <v>44049</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="11"/>
@@ -6472,7 +6423,7 @@
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
-      <c r="T39" s="60"/>
+      <c r="T39" s="66"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
       <c r="W39" s="11"/>
@@ -6487,7 +6438,7 @@
       <c r="AF39" s="11"/>
       <c r="AG39" s="11"/>
       <c r="AH39" s="11"/>
-      <c r="AI39" s="60"/>
+      <c r="AI39" s="66"/>
       <c r="AJ39" s="5"/>
       <c r="AK39" s="5"/>
       <c r="AL39" s="5"/>
@@ -6582,22 +6533,20 @@
       <c r="EJ39"/>
     </row>
     <row r="40" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>32</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C40" s="55"/>
       <c r="D40" s="26">
         <v>44050</v>
       </c>
       <c r="E40" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" s="6">
-        <f>IF(E40&gt;0,WORKDAY(D40,E40,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D40)=0, WEEKDAY(D40,2)&lt;6),1,0),"")</f>
-        <v>44055</v>
+        <f t="shared" si="3"/>
+        <v>44053</v>
       </c>
       <c r="G40" s="10"/>
       <c r="H40" s="11"/>
@@ -6612,7 +6561,7 @@
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
-      <c r="T40" s="60"/>
+      <c r="T40" s="66"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
       <c r="W40" s="11"/>
@@ -6627,7 +6576,7 @@
       <c r="AF40" s="11"/>
       <c r="AG40" s="11"/>
       <c r="AH40" s="11"/>
-      <c r="AI40" s="60"/>
+      <c r="AI40" s="66"/>
       <c r="AJ40" s="5"/>
       <c r="AK40" s="5"/>
       <c r="AL40" s="5"/>
@@ -6722,22 +6671,21 @@
       <c r="EJ40"/>
     </row>
     <row r="41" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>34</v>
+        <v>69</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>28</v>
       </c>
       <c r="D41" s="26">
-        <v>44039</v>
+        <v>44051</v>
       </c>
       <c r="E41" s="27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="6">
-        <f>IF(E41&gt;0,WORKDAY(D41,E41,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D41)=0, WEEKDAY(D41,2)&lt;6),1,0),"")</f>
-        <v>44040</v>
+        <v>44053</v>
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="11"/>
@@ -6752,7 +6700,7 @@
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
-      <c r="T41" s="60"/>
+      <c r="T41" s="66"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
       <c r="W41" s="11"/>
@@ -6767,7 +6715,7 @@
       <c r="AF41" s="11"/>
       <c r="AG41" s="11"/>
       <c r="AH41" s="11"/>
-      <c r="AI41" s="60"/>
+      <c r="AI41" s="66"/>
       <c r="AJ41" s="5"/>
       <c r="AK41" s="5"/>
       <c r="AL41" s="5"/>
@@ -6862,20 +6810,19 @@
       <c r="EJ41"/>
     </row>
     <row r="42" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
+      <c r="A42" s="60"/>
       <c r="B42" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="58"/>
+        <v>67</v>
+      </c>
+      <c r="C42" s="54"/>
       <c r="D42" s="26">
-        <v>44041</v>
+        <v>44054</v>
       </c>
       <c r="E42" s="27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" s="6">
-        <f>IF(E42&gt;0,WORKDAY(D42,E42,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D42)=0, WEEKDAY(D42,2)&lt;6),1,0),"")</f>
-        <v>44047</v>
+        <v>44055</v>
       </c>
       <c r="G42" s="10"/>
       <c r="H42" s="11"/>
@@ -6890,7 +6837,7 @@
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
-      <c r="T42" s="60"/>
+      <c r="T42" s="66"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
       <c r="W42" s="11"/>
@@ -6905,7 +6852,7 @@
       <c r="AF42" s="11"/>
       <c r="AG42" s="11"/>
       <c r="AH42" s="11"/>
-      <c r="AI42" s="60"/>
+      <c r="AI42" s="66"/>
       <c r="AJ42" s="5"/>
       <c r="AK42" s="5"/>
       <c r="AL42" s="5"/>
@@ -7000,20 +6947,19 @@
       <c r="EJ42"/>
     </row>
     <row r="43" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
+      <c r="A43" s="60"/>
       <c r="B43" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C43" s="58"/>
+        <v>68</v>
+      </c>
+      <c r="C43" s="55"/>
       <c r="D43" s="26">
-        <v>44050</v>
+        <v>44056</v>
       </c>
       <c r="E43" s="27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="6">
-        <f>IF(E43&gt;0,WORKDAY(D43,E43,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D43)=0, WEEKDAY(D43,2)&lt;6),1,0),"")</f>
-        <v>44053</v>
+        <v>44056</v>
       </c>
       <c r="G43" s="10"/>
       <c r="H43" s="11"/>
@@ -7028,7 +6974,7 @@
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
-      <c r="T43" s="60"/>
+      <c r="T43" s="66"/>
       <c r="U43" s="11"/>
       <c r="V43" s="11"/>
       <c r="W43" s="11"/>
@@ -7043,7 +6989,7 @@
       <c r="AF43" s="11"/>
       <c r="AG43" s="11"/>
       <c r="AH43" s="11"/>
-      <c r="AI43" s="60"/>
+      <c r="AI43" s="66"/>
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
       <c r="AL43" s="5"/>
@@ -7138,22 +7084,22 @@
       <c r="EJ43"/>
     </row>
     <row r="44" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>37</v>
+        <v>61</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D44" s="26">
-        <v>44046</v>
+        <v>44050</v>
       </c>
       <c r="E44" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" s="6">
-        <f>IF(E44&gt;0,WORKDAY(D44,E44,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D44)=0, WEEKDAY(D44,2)&lt;6),1,0),"")</f>
-        <v>44046</v>
+        <f t="shared" ref="F44:F52" si="4">IF(E44&gt;0,WORKDAY(D44,E44,$A$55:$A$57)-IF(AND(COUNTIF($A$55:$A$57,D44)=0, WEEKDAY(D44,2)&lt;6),1,0),"")</f>
+        <v>44055</v>
       </c>
       <c r="G44" s="10"/>
       <c r="H44" s="11"/>
@@ -7168,7 +7114,7 @@
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
-      <c r="T44" s="60"/>
+      <c r="T44" s="66"/>
       <c r="U44" s="11"/>
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
@@ -7183,7 +7129,7 @@
       <c r="AF44" s="11"/>
       <c r="AG44" s="11"/>
       <c r="AH44" s="11"/>
-      <c r="AI44" s="60"/>
+      <c r="AI44" s="66"/>
       <c r="AJ44" s="5"/>
       <c r="AK44" s="5"/>
       <c r="AL44" s="5"/>
@@ -7278,50 +7224,52 @@
       <c r="EJ44"/>
     </row>
     <row r="45" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="58"/>
-      <c r="D45" s="64">
-        <v>44047</v>
-      </c>
-      <c r="E45" s="65">
-        <v>3</v>
-      </c>
-      <c r="F45" s="66">
-        <f>IF(E45&gt;0,WORKDAY(D45,E45,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D45)=0, WEEKDAY(D45,2)&lt;6),1,0),"")</f>
-        <v>44049</v>
-      </c>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="68"/>
-      <c r="O45" s="68"/>
-      <c r="P45" s="68"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="68"/>
-      <c r="S45" s="68"/>
-      <c r="T45" s="60"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="68"/>
-      <c r="W45" s="68"/>
-      <c r="X45" s="68"/>
-      <c r="Y45" s="68"/>
-      <c r="Z45" s="68"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="68"/>
-      <c r="AC45" s="68"/>
-      <c r="AD45" s="68"/>
-      <c r="AE45" s="68"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="60"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="26">
+        <v>44039</v>
+      </c>
+      <c r="E45" s="27">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <f t="shared" si="4"/>
+        <v>44040</v>
+      </c>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="66"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="11"/>
+      <c r="AB45" s="11"/>
+      <c r="AC45" s="11"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="11"/>
+      <c r="AF45" s="11"/>
+      <c r="AG45" s="11"/>
+      <c r="AH45" s="11"/>
+      <c r="AI45" s="66"/>
       <c r="AJ45" s="5"/>
       <c r="AK45" s="5"/>
       <c r="AL45" s="5"/>
@@ -7416,50 +7364,50 @@
       <c r="EJ45"/>
     </row>
     <row r="46" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" s="49"/>
-      <c r="D46" s="64">
-        <v>44050</v>
-      </c>
-      <c r="E46" s="65">
-        <v>2</v>
-      </c>
-      <c r="F46" s="66">
-        <f>IF(E46&gt;0,WORKDAY(D46,E46,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D46)=0, WEEKDAY(D46,2)&lt;6),1,0),"")</f>
-        <v>44053</v>
-      </c>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
-      <c r="R46" s="68"/>
-      <c r="S46" s="68"/>
-      <c r="T46" s="60"/>
-      <c r="U46" s="68"/>
-      <c r="V46" s="68"/>
-      <c r="W46" s="68"/>
-      <c r="X46" s="68"/>
-      <c r="Y46" s="68"/>
-      <c r="Z46" s="68"/>
-      <c r="AA46" s="68"/>
-      <c r="AB46" s="68"/>
-      <c r="AC46" s="68"/>
-      <c r="AD46" s="68"/>
-      <c r="AE46" s="68"/>
-      <c r="AF46" s="68"/>
-      <c r="AG46" s="68"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="60"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="54"/>
+      <c r="D46" s="26">
+        <v>44041</v>
+      </c>
+      <c r="E46" s="27">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6">
+        <f t="shared" si="4"/>
+        <v>44047</v>
+      </c>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="66"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="66"/>
       <c r="AJ46" s="5"/>
       <c r="AK46" s="5"/>
       <c r="AL46" s="5"/>
@@ -7554,52 +7502,50 @@
       <c r="EJ46"/>
     </row>
     <row r="47" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="33">
-        <v>44055</v>
-      </c>
-      <c r="E47" s="34">
-        <v>1</v>
-      </c>
-      <c r="F47" s="35">
-        <f>IF(E47&gt;0,WORKDAY(D47,E47,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D47)=0, WEEKDAY(D47,2)&lt;6),1,0),"")</f>
-        <v>44055</v>
-      </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="61"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37"/>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37"/>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37"/>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37"/>
-      <c r="AI47" s="61"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="54"/>
+      <c r="D47" s="26">
+        <v>44050</v>
+      </c>
+      <c r="E47" s="27">
+        <v>2</v>
+      </c>
+      <c r="F47" s="6">
+        <f t="shared" si="4"/>
+        <v>44053</v>
+      </c>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="66"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="11"/>
+      <c r="Z47" s="11"/>
+      <c r="AA47" s="11"/>
+      <c r="AB47" s="11"/>
+      <c r="AC47" s="11"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="11"/>
+      <c r="AH47" s="11"/>
+      <c r="AI47" s="66"/>
       <c r="AJ47" s="5"/>
       <c r="AK47" s="5"/>
       <c r="AL47" s="5"/>
@@ -7694,44 +7640,52 @@
       <c r="EJ47"/>
     </row>
     <row r="48" spans="1:140" x14ac:dyDescent="0.3">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="29" t="str">
-        <f>IF(E48&gt;0,WORKDAY(D48,E48,$A$51:$A$53)-IF(AND(COUNTIF($A$51:$A$53,D48)=0, WEEKDAY(D48,2)&lt;6),1,0),"")</f>
-        <v/>
-      </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="30"/>
-      <c r="S48" s="30"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="30"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="30"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="30"/>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AD48" s="30"/>
-      <c r="AE48" s="30"/>
-      <c r="AF48" s="30"/>
-      <c r="AG48" s="30"/>
-      <c r="AH48" s="30"/>
-      <c r="AI48" s="30"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" s="26">
+        <v>44046</v>
+      </c>
+      <c r="E48" s="27">
+        <v>1</v>
+      </c>
+      <c r="F48" s="6">
+        <f t="shared" si="4"/>
+        <v>44046</v>
+      </c>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="66"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="11"/>
+      <c r="Y48" s="11"/>
+      <c r="Z48" s="11"/>
+      <c r="AA48" s="11"/>
+      <c r="AB48" s="11"/>
+      <c r="AC48" s="11"/>
+      <c r="AD48" s="11"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="66"/>
       <c r="AJ48" s="5"/>
       <c r="AK48" s="5"/>
       <c r="AL48" s="5"/>
@@ -7825,87 +7779,638 @@
       <c r="EI48"/>
       <c r="EJ48"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="44"/>
+    <row r="49" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A49" s="60"/>
+      <c r="B49" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="42">
+        <v>44047</v>
+      </c>
+      <c r="E49" s="43">
+        <v>3</v>
+      </c>
+      <c r="F49" s="44">
+        <f t="shared" si="4"/>
+        <v>44049</v>
+      </c>
+      <c r="G49" s="45"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="66"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
+      <c r="BQ49" s="5"/>
+      <c r="BR49" s="5"/>
+      <c r="BS49" s="5"/>
+      <c r="BT49" s="5"/>
+      <c r="BU49" s="5"/>
+      <c r="BV49" s="5"/>
+      <c r="BW49" s="5"/>
+      <c r="BX49" s="5"/>
+      <c r="BY49" s="5"/>
+      <c r="BZ49" s="5"/>
+      <c r="CA49" s="5"/>
+      <c r="CB49" s="5"/>
+      <c r="CC49" s="5"/>
+      <c r="CQ49"/>
+      <c r="CR49"/>
+      <c r="CS49"/>
+      <c r="CT49"/>
+      <c r="CU49"/>
+      <c r="CV49"/>
+      <c r="CW49"/>
+      <c r="CX49"/>
+      <c r="CY49"/>
+      <c r="CZ49"/>
+      <c r="DA49"/>
+      <c r="DB49"/>
+      <c r="DC49"/>
+      <c r="DD49"/>
+      <c r="DE49"/>
+      <c r="DF49"/>
+      <c r="DG49"/>
+      <c r="DH49"/>
+      <c r="DI49"/>
+      <c r="DJ49"/>
+      <c r="DK49"/>
+      <c r="DL49"/>
+      <c r="DM49"/>
+      <c r="DN49"/>
+      <c r="DO49"/>
+      <c r="DP49"/>
+      <c r="DQ49"/>
+      <c r="DR49"/>
+      <c r="DS49"/>
+      <c r="DT49"/>
+      <c r="DU49"/>
+      <c r="DV49"/>
+      <c r="DW49"/>
+      <c r="DX49"/>
+      <c r="DY49"/>
+      <c r="DZ49"/>
+      <c r="EA49"/>
+      <c r="EB49"/>
+      <c r="EC49"/>
+      <c r="ED49"/>
+      <c r="EE49"/>
+      <c r="EF49"/>
+      <c r="EG49"/>
+      <c r="EH49"/>
+      <c r="EI49"/>
+      <c r="EJ49"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+    <row r="50" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A50" s="60"/>
+      <c r="B50" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="55"/>
+      <c r="D50" s="42">
+        <v>44050</v>
+      </c>
+      <c r="E50" s="43">
+        <v>2</v>
+      </c>
+      <c r="F50" s="44">
+        <f t="shared" si="4"/>
+        <v>44053</v>
+      </c>
+      <c r="G50" s="45"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="66"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
+      <c r="BN50" s="5"/>
+      <c r="BO50" s="5"/>
+      <c r="BP50" s="5"/>
+      <c r="BQ50" s="5"/>
+      <c r="BR50" s="5"/>
+      <c r="BS50" s="5"/>
+      <c r="BT50" s="5"/>
+      <c r="BU50" s="5"/>
+      <c r="BV50" s="5"/>
+      <c r="BW50" s="5"/>
+      <c r="BX50" s="5"/>
+      <c r="BY50" s="5"/>
+      <c r="BZ50" s="5"/>
+      <c r="CA50" s="5"/>
+      <c r="CB50" s="5"/>
+      <c r="CC50" s="5"/>
+      <c r="CQ50"/>
+      <c r="CR50"/>
+      <c r="CS50"/>
+      <c r="CT50"/>
+      <c r="CU50"/>
+      <c r="CV50"/>
+      <c r="CW50"/>
+      <c r="CX50"/>
+      <c r="CY50"/>
+      <c r="CZ50"/>
+      <c r="DA50"/>
+      <c r="DB50"/>
+      <c r="DC50"/>
+      <c r="DD50"/>
+      <c r="DE50"/>
+      <c r="DF50"/>
+      <c r="DG50"/>
+      <c r="DH50"/>
+      <c r="DI50"/>
+      <c r="DJ50"/>
+      <c r="DK50"/>
+      <c r="DL50"/>
+      <c r="DM50"/>
+      <c r="DN50"/>
+      <c r="DO50"/>
+      <c r="DP50"/>
+      <c r="DQ50"/>
+      <c r="DR50"/>
+      <c r="DS50"/>
+      <c r="DT50"/>
+      <c r="DU50"/>
+      <c r="DV50"/>
+      <c r="DW50"/>
+      <c r="DX50"/>
+      <c r="DY50"/>
+      <c r="DZ50"/>
+      <c r="EA50"/>
+      <c r="EB50"/>
+      <c r="EC50"/>
+      <c r="ED50"/>
+      <c r="EE50"/>
+      <c r="EF50"/>
+      <c r="EG50"/>
+      <c r="EH50"/>
+      <c r="EI50"/>
+      <c r="EJ50"/>
+    </row>
+    <row r="51" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A51" s="68"/>
+      <c r="B51" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="33">
+        <v>44055</v>
+      </c>
+      <c r="E51" s="34">
+        <v>1</v>
+      </c>
+      <c r="F51" s="35">
+        <f t="shared" si="4"/>
+        <v>44055</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="67"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+      <c r="AA51" s="37"/>
+      <c r="AB51" s="37"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="37"/>
+      <c r="AE51" s="37"/>
+      <c r="AF51" s="37"/>
+      <c r="AG51" s="37"/>
+      <c r="AH51" s="37"/>
+      <c r="AI51" s="67"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
+      <c r="BN51" s="5"/>
+      <c r="BO51" s="5"/>
+      <c r="BP51" s="5"/>
+      <c r="BQ51" s="5"/>
+      <c r="BR51" s="5"/>
+      <c r="BS51" s="5"/>
+      <c r="BT51" s="5"/>
+      <c r="BU51" s="5"/>
+      <c r="BV51" s="5"/>
+      <c r="BW51" s="5"/>
+      <c r="BX51" s="5"/>
+      <c r="BY51" s="5"/>
+      <c r="BZ51" s="5"/>
+      <c r="CA51" s="5"/>
+      <c r="CB51" s="5"/>
+      <c r="CC51" s="5"/>
+      <c r="CQ51"/>
+      <c r="CR51"/>
+      <c r="CS51"/>
+      <c r="CT51"/>
+      <c r="CU51"/>
+      <c r="CV51"/>
+      <c r="CW51"/>
+      <c r="CX51"/>
+      <c r="CY51"/>
+      <c r="CZ51"/>
+      <c r="DA51"/>
+      <c r="DB51"/>
+      <c r="DC51"/>
+      <c r="DD51"/>
+      <c r="DE51"/>
+      <c r="DF51"/>
+      <c r="DG51"/>
+      <c r="DH51"/>
+      <c r="DI51"/>
+      <c r="DJ51"/>
+      <c r="DK51"/>
+      <c r="DL51"/>
+      <c r="DM51"/>
+      <c r="DN51"/>
+      <c r="DO51"/>
+      <c r="DP51"/>
+      <c r="DQ51"/>
+      <c r="DR51"/>
+      <c r="DS51"/>
+      <c r="DT51"/>
+      <c r="DU51"/>
+      <c r="DV51"/>
+      <c r="DW51"/>
+      <c r="DX51"/>
+      <c r="DY51"/>
+      <c r="DZ51"/>
+      <c r="EA51"/>
+      <c r="EB51"/>
+      <c r="EC51"/>
+      <c r="ED51"/>
+      <c r="EE51"/>
+      <c r="EF51"/>
+      <c r="EG51"/>
+      <c r="EH51"/>
+      <c r="EI51"/>
+      <c r="EJ51"/>
+    </row>
+    <row r="52" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="30"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
+      <c r="T52" s="30"/>
+      <c r="U52" s="30"/>
+      <c r="V52" s="30"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="30"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+      <c r="BQ52" s="5"/>
+      <c r="BR52" s="5"/>
+      <c r="BS52" s="5"/>
+      <c r="BT52" s="5"/>
+      <c r="BU52" s="5"/>
+      <c r="BV52" s="5"/>
+      <c r="BW52" s="5"/>
+      <c r="BX52" s="5"/>
+      <c r="BY52" s="5"/>
+      <c r="BZ52" s="5"/>
+      <c r="CA52" s="5"/>
+      <c r="CB52" s="5"/>
+      <c r="CC52" s="5"/>
+      <c r="CQ52"/>
+      <c r="CR52"/>
+      <c r="CS52"/>
+      <c r="CT52"/>
+      <c r="CU52"/>
+      <c r="CV52"/>
+      <c r="CW52"/>
+      <c r="CX52"/>
+      <c r="CY52"/>
+      <c r="CZ52"/>
+      <c r="DA52"/>
+      <c r="DB52"/>
+      <c r="DC52"/>
+      <c r="DD52"/>
+      <c r="DE52"/>
+      <c r="DF52"/>
+      <c r="DG52"/>
+      <c r="DH52"/>
+      <c r="DI52"/>
+      <c r="DJ52"/>
+      <c r="DK52"/>
+      <c r="DL52"/>
+      <c r="DM52"/>
+      <c r="DN52"/>
+      <c r="DO52"/>
+      <c r="DP52"/>
+      <c r="DQ52"/>
+      <c r="DR52"/>
+      <c r="DS52"/>
+      <c r="DT52"/>
+      <c r="DU52"/>
+      <c r="DV52"/>
+      <c r="DW52"/>
+      <c r="DX52"/>
+      <c r="DY52"/>
+      <c r="DZ52"/>
+      <c r="EA52"/>
+      <c r="EB52"/>
+      <c r="EC52"/>
+      <c r="ED52"/>
+      <c r="EE52"/>
+      <c r="EF52"/>
+      <c r="EG52"/>
+      <c r="EH52"/>
+      <c r="EI52"/>
+      <c r="EJ52"/>
+    </row>
+    <row r="54" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A54" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="71"/>
+      <c r="C54" s="71"/>
+      <c r="D54" s="72"/>
+    </row>
+    <row r="55" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <v>44043</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B55" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="47"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+    <row r="56" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <v>44057</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B56" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="47"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="3"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="47"/>
+    <row r="57" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A57" s="3"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+    <row r="58" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+    <row r="59" spans="1:140" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="T4:T47"/>
-    <mergeCell ref="AI4:AI47"/>
-    <mergeCell ref="A37:A47"/>
-    <mergeCell ref="B51:D51"/>
+  <mergeCells count="27">
+    <mergeCell ref="T4:T51"/>
+    <mergeCell ref="AI4:AI51"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A4:A21"/>
+    <mergeCell ref="A23:A37"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A4:A20"/>
-    <mergeCell ref="A22:A35"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="C27:C28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G4:T4 G48:T48 AI4 U4:AH48 G5:S47">
-    <cfRule type="expression" dxfId="2" priority="285">
-      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$51:$A$53,G$3)&gt;0)</formula>
+  <conditionalFormatting sqref="G4:T4 G52:T52 AI4 U4:AH52 G5:S51">
+    <cfRule type="expression" dxfId="2" priority="315">
+      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$55:$A$57,G$3)&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="286">
+    <cfRule type="expression" dxfId="1" priority="316">
       <formula>AND(G$3&gt;=$D4, G$3&lt;=$F4,LEN($F4)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:AI3">
-    <cfRule type="expression" dxfId="0" priority="299">
-      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$51:$A$53,G$3)&gt;0)</formula>
+    <cfRule type="expression" dxfId="0" priority="329">
+      <formula>OR(WEEKDAY(G$3,2)&gt;=6,COUNTIF($A$55:$A$57,G$3)&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
